--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA378BF-524D-4666-88D7-E0ADD1EEBEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37953554-EB02-46D7-ADC5-9EE18CA42D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="477">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t>Ich kann</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1586,7 @@
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
     <tableColumn id="2" xr3:uid="{52161D50-95B9-4134-AE3B-621C71EA5A88}" name="Lernbereich"/>
     <tableColumn id="3" xr3:uid="{A00D0C37-49EC-4664-851E-E5519F18EF57}" name="Ich kann"/>
-    <tableColumn id="4" xr3:uid="{0B3422E8-0915-4ED4-8244-290CAAA9D261}" name="Übung"/>
+    <tableColumn id="4" xr3:uid="{0B3422E8-0915-4ED4-8244-290CAAA9D261}" name="Sammlung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1938,18 +1941,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1960,10 +1963,10 @@
         <v>475</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2236,20 +2239,20 @@
       <selection activeCell="F142" sqref="F142:G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -6701,7 +6704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -6725,7 +6728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -6815,23 +6818,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37953554-EB02-46D7-ADC5-9EE18CA42D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FFCA31-43C3-4443-B3A3-51595B9B499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="480">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1453,9 +1453,6 @@
     <t>Lernbereich</t>
   </si>
   <si>
-    <t>einfuehrung</t>
-  </si>
-  <si>
     <t>mehrstufige-zufallsexperimente</t>
   </si>
   <si>
@@ -1472,6 +1469,18 @@
   </si>
   <si>
     <t>Sammlung</t>
+  </si>
+  <si>
+    <t>zufallsexperimente-und-wahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>interaktiv</t>
   </si>
 </sst>
 </file>
@@ -1580,13 +1589,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F26" totalsRowShown="0">
+  <autoFilter ref="A1:F26" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
+    <sortCondition ref="A2:A26"/>
+    <sortCondition ref="B2:B26"/>
+    <sortCondition ref="C2:C26"/>
+  </sortState>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
     <tableColumn id="2" xr3:uid="{52161D50-95B9-4134-AE3B-621C71EA5A88}" name="Lernbereich"/>
+    <tableColumn id="5" xr3:uid="{94B0BA31-029E-49B8-BBE9-5F86CBF7C65A}" name="Nummer"/>
     <tableColumn id="3" xr3:uid="{A00D0C37-49EC-4664-851E-E5519F18EF57}" name="Ich kann"/>
     <tableColumn id="4" xr3:uid="{0B3422E8-0915-4ED4-8244-290CAAA9D261}" name="Sammlung"/>
+    <tableColumn id="6" xr3:uid="{E5D2A67B-0C94-46D4-8A47-EDA3D370B7A8}" name="Typ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1597,7 +1613,7 @@
   <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Binomialverteilung"/>
+        <filter val="Grundbegriffe der Wahrscheinlichkeitsrechnung"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1938,21 +1954,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1960,266 +1977,447 @@
         <v>469</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" t="s">
         <v>475</v>
       </c>
-      <c r="D1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
+        <v>473</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
+        <v>473</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
+        <v>473</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
+        <v>473</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" t="s">
-        <v>446</v>
+        <v>473</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" t="s">
-        <v>445</v>
+        <v>473</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
-      </c>
-      <c r="C12" t="s">
-        <v>444</v>
+        <v>473</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" t="s">
-        <v>461</v>
+        <v>473</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
+        <v>473</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
+        <v>473</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" t="s">
-        <v>233</v>
+        <v>473</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C17" t="s">
-        <v>234</v>
+        <v>473</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>474</v>
-      </c>
-      <c r="C18" t="s">
-        <v>235</v>
+        <v>473</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="F19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
+        <v>476</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
+        <v>476</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>476</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -2235,8 +2433,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="D149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142:G157"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158:G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5489,7 +5687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5513,7 +5711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5735,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5561,7 +5759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5585,7 +5783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5609,7 +5807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5633,7 +5831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5657,7 +5855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5881,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5707,7 +5905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -5731,7 +5929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -5757,7 +5955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -5809,7 +6007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -5833,7 +6031,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -5859,7 +6057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -5885,7 +6083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +6109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +6135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -5963,7 +6161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -5987,7 +6185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6011,7 +6209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6035,7 +6233,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6057,7 +6255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6076,7 +6274,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6095,7 +6293,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FFCA31-43C3-4443-B3A3-51595B9B499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA9169-B244-4D11-ABAF-B5D101A36E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="482">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1481,6 +1481,12 @@
   </si>
   <si>
     <t>interaktiv</t>
+  </si>
+  <si>
+    <t>statisch</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_grundbegriffe</t>
   </si>
 </sst>
 </file>
@@ -1956,20 +1962,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2317,18 +2323,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>470</v>
       </c>
-      <c r="F19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2341,8 +2344,14 @@
       <c r="D20" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +2379,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2437,20 +2446,20 @@
       <selection activeCell="F158" sqref="F158:G161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3217,7 +3226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3345,7 +3354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3605,7 +3614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4320,7 +4329,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4498,7 +4507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4644,7 +4653,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4716,7 +4725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5144,7 +5153,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5186,7 +5195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5207,7 +5216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5249,7 +5258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5312,7 +5321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5354,7 +5363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5417,7 +5426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5438,7 +5447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5503,7 +5512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5549,7 +5558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5572,7 +5581,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5641,7 +5650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5664,7 +5673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5687,7 +5696,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5711,7 +5720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6057,7 +6066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6083,7 +6092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6109,7 +6118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6144,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6255,7 +6264,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6274,7 +6283,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6314,7 +6323,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6340,7 +6349,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6366,7 +6375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6418,7 +6427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6444,7 +6453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6566,7 +6575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6638,7 +6647,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +6671,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6686,7 +6695,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6719,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -6878,7 +6887,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -6902,7 +6911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +6959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -6974,7 +6983,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7016,23 +7025,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7040,7 +7049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7078,7 +7087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA9169-B244-4D11-ABAF-B5D101A36E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778259AD-4C12-4914-8267-B4969B4324ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="485">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1459,9 +1459,6 @@
     <t>bedingte-wahrscheinlichkeiten</t>
   </si>
   <si>
-    <t>zufallsgroessen</t>
-  </si>
-  <si>
     <t>binomialverteilung</t>
   </si>
   <si>
@@ -1486,7 +1483,19 @@
     <t>statisch</t>
   </si>
   <si>
-    <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_grundbegriffe</t>
+    <t>Mengen unter Berücksichtigung der Mengenoperationen symbolisch, textuell und in Mengenschreibweise beschreiben.</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_mengenoperationen</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_grundbegriffe-zufallsexperiment</t>
+  </si>
+  <si>
+    <t>entschieden, ob ein Laplace-Experiment vorliegt.</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_laplace</t>
   </si>
 </sst>
 </file>
@@ -1516,15 +1525,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1532,12 +1547,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1545,6 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1595,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F26" totalsRowShown="0">
-  <autoFilter ref="A1:F26" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F27" totalsRowShown="0">
+  <autoFilter ref="A1:F27" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
     <sortCondition ref="A2:A26"/>
     <sortCondition ref="B2:B26"/>
@@ -1616,13 +1643,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:I189" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Grundbegriffe der Wahrscheinlichkeitsrechnung"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I189">
     <sortCondition ref="B2:B189"/>
     <sortCondition ref="D2:D189"/>
@@ -1962,20 +1983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1983,19 +2004,19 @@
         <v>469</v>
       </c>
       <c r="C1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" t="s">
         <v>477</v>
       </c>
-      <c r="D1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2003,12 +2024,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2020,15 +2041,15 @@
         <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2040,15 +2061,15 @@
         <v>460</v>
       </c>
       <c r="F4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2060,15 +2081,15 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2080,15 +2101,15 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2100,15 +2121,15 @@
         <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2120,15 +2141,15 @@
         <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2140,15 +2161,15 @@
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2160,15 +2181,15 @@
         <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2180,15 +2201,15 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2200,15 +2221,15 @@
         <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2220,15 +2241,15 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2240,15 +2261,15 @@
         <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -2260,15 +2281,15 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -2280,15 +2301,15 @@
         <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -2300,15 +2321,15 @@
         <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -2320,10 +2341,10 @@
         <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2331,102 +2352,144 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="E20" t="s">
         <v>481</v>
       </c>
       <c r="F20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+      <c r="E21" t="s">
+        <v>482</v>
+      </c>
+      <c r="F21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>456</v>
-      </c>
-      <c r="E23" t="s">
-        <v>457</v>
+      <c r="D23" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="F23" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>472</v>
+        <v>475</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>454</v>
+      </c>
+      <c r="E26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -2442,24 +2505,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158:G161"/>
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175:G175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2551,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2566,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2664,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2782,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2896,7 +2959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2920,7 +2983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +3007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +3031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +3057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3124,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3202,7 +3265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3302,7 +3365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3354,7 +3417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3458,7 +3521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3614,7 +3677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3640,7 +3703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3666,7 +3729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3718,7 +3781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3744,7 +3807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +3859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3822,7 +3885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3874,7 +3937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3923,7 +3986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +4007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -3965,7 +4028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +4046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +4064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4024,7 +4087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4047,7 +4110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4070,7 +4133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4093,7 +4156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4116,7 +4179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4139,7 +4202,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4162,7 +4225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4185,7 +4248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4209,7 +4272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4233,7 +4296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4257,7 +4320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4281,7 +4344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4305,7 +4368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4329,7 +4392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4353,7 +4416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4377,7 +4440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4403,7 +4466,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4429,7 +4492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4455,7 +4518,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4481,7 +4544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4507,7 +4570,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4533,7 +4596,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4557,7 +4620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4581,7 +4644,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4605,7 +4668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4629,7 +4692,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4653,7 +4716,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4677,7 +4740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4701,7 +4764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4725,7 +4788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4749,7 +4812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4773,7 +4836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4797,7 +4860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4821,7 +4884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4845,7 +4908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4869,7 +4932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4893,7 +4956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4917,7 +4980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -4941,7 +5004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -4965,7 +5028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -4989,7 +5052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5013,7 +5076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5037,7 +5100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5061,7 +5124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5085,7 +5148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5111,7 +5174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5132,7 +5195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5153,7 +5216,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5174,7 +5237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5195,7 +5258,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5216,7 +5279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5237,7 +5300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5258,7 +5321,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5279,7 +5342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5300,7 +5363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5321,7 +5384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5342,7 +5405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5363,7 +5426,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5384,7 +5447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5405,7 +5468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5426,7 +5489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5447,7 +5510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5468,7 +5531,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5489,7 +5552,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5512,7 +5575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5535,7 +5598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5558,7 +5621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5581,7 +5644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5604,7 +5667,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5627,7 +5690,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5650,7 +5713,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5673,7 +5736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5696,7 +5759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5720,7 +5783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5744,7 +5807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5768,7 +5831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5792,7 +5855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5816,7 +5879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5840,7 +5903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5890,7 +5953,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5914,7 +5977,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -5938,7 +6001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -5964,7 +6027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -5990,7 +6053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +6079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6040,7 +6103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6066,7 +6129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6092,7 +6155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6118,7 +6181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6144,7 +6207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6170,7 +6233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6194,7 +6257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6242,7 +6305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6264,7 +6327,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6283,7 +6346,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +6365,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6323,7 +6386,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6349,7 +6412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6375,7 +6438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6401,7 +6464,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6427,7 +6490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6453,7 +6516,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6479,7 +6542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6503,7 +6566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6527,7 +6590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6551,7 +6614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6575,7 +6638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6599,7 +6662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6623,7 +6686,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6647,7 +6710,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6671,7 +6734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6719,7 +6782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6743,7 +6806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6767,7 +6830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6791,7 +6854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -6815,7 +6878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -6863,7 +6926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -6887,7 +6950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -6911,7 +6974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -6935,7 +6998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -6959,7 +7022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -6983,7 +7046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7025,23 +7088,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7049,7 +7112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7060,7 +7123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7068,7 +7131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7076,7 +7139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7087,7 +7150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7098,7 +7161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778259AD-4C12-4914-8267-B4969B4324ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542FFDC-8A95-4861-978F-371BDA2AF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -1571,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1983,20 +1983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2449,10 +2449,10 @@
         <v>457</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2509,20 +2509,20 @@
       <selection activeCell="F175" sqref="F175:G175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7088,23 +7088,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542FFDC-8A95-4861-978F-371BDA2AF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0ADB8-93E9-4594-869A-68566E03678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="488">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1496,6 +1496,15 @@
   </si>
   <si>
     <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_laplace</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (direkte Anwendung der Pfadmultiplikationsregel).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (indirekte Anwendung der Pfadmultiplikationsregel).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (Anwendung der Pfadadditionsregel).</t>
   </si>
 </sst>
 </file>
@@ -1622,12 +1631,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
-    <sortCondition ref="A2:A26"/>
-    <sortCondition ref="B2:B26"/>
-    <sortCondition ref="C2:C26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F40" totalsRowShown="0">
+  <autoFilter ref="A1:F40" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="C2:C39"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
@@ -1981,22 +1990,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2025,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2233,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2244,7 +2253,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2333,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2352,143 +2361,259 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>480</v>
-      </c>
-      <c r="E20" t="s">
-        <v>481</v>
-      </c>
-      <c r="F20" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E21" t="s">
-        <v>482</v>
-      </c>
-      <c r="F21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
+        <v>470</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
+      </c>
+      <c r="D23" t="s">
+        <v>486</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="D24" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
         <v>475</v>
       </c>
-      <c r="C26">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>480</v>
+      </c>
+      <c r="E33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>475</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" t="s">
+        <v>457</v>
+      </c>
+      <c r="F37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D39" t="s">
         <v>454</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E39" t="s">
         <v>453</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F39" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2505,24 +2630,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175:G175"/>
+    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168:G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2676,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2577,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2655,7 +2780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2727,7 +2852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +2900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +2948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +3016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +3040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +3062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +3108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3083,7 +3208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3213,7 +3338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3365,7 +3490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3417,7 +3542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3521,7 +3646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +3672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3573,7 +3698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3599,7 +3724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3625,7 +3750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3651,7 +3776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +3932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3833,7 +3958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +4010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +4036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -3937,7 +4062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3963,7 +4088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -3986,7 +4111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4028,7 +4153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4064,7 +4189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4087,7 +4212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4110,7 +4235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4133,7 +4258,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4156,7 +4281,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4179,7 +4304,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4202,7 +4327,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4225,7 +4350,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4248,7 +4373,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4272,7 +4397,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4296,7 +4421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4320,7 +4445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4344,7 +4469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4368,7 +4493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4392,7 +4517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4416,7 +4541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4440,7 +4565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4466,7 +4591,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4492,7 +4617,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4518,7 +4643,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4544,7 +4669,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4570,7 +4695,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4596,7 +4721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4620,7 +4745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4644,7 +4769,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4668,7 +4793,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4692,7 +4817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4716,7 +4841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4740,7 +4865,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4764,7 +4889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4788,7 +4913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4812,7 +4937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4836,7 +4961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4860,7 +4985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4884,7 +5009,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -4908,7 +5033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -4932,7 +5057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4956,7 +5081,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -4980,7 +5105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5004,7 +5129,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5028,7 +5153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5052,7 +5177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5076,7 +5201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5100,7 +5225,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5124,7 +5249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5148,7 +5273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5174,7 +5299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5195,7 +5320,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5216,7 +5341,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5237,7 +5362,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5258,7 +5383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5279,7 +5404,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5300,7 +5425,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5321,7 +5446,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5342,7 +5467,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5363,7 +5488,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5384,7 +5509,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5405,7 +5530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5426,7 +5551,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5447,7 +5572,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5468,7 +5593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5489,7 +5614,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5510,7 +5635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5531,7 +5656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5552,7 +5677,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5575,7 +5700,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5598,7 +5723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5621,7 +5746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5644,7 +5769,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5667,7 +5792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5690,7 +5815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5713,7 +5838,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5736,7 +5861,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5759,7 +5884,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5908,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5807,7 +5932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5831,7 +5956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +5980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -5879,7 +6004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -5903,7 +6028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -5927,7 +6052,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -5953,7 +6078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -5977,7 +6102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6001,7 +6126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6027,7 +6152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6079,7 +6204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6103,7 +6228,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6129,7 +6254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +6280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6181,7 +6306,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6207,7 +6332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +6358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6257,7 +6382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6281,7 +6406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6305,7 +6430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6327,7 +6452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6490,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6386,7 +6511,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6412,7 +6537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6438,7 +6563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6464,7 +6589,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6490,7 +6615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6516,7 +6641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6542,7 +6667,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6566,7 +6691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6638,7 +6763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +6787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6686,7 +6811,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6710,7 +6835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6734,7 +6859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6883,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6782,7 +6907,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6830,7 +6955,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -6878,7 +7003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -6902,7 +7027,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +7051,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +7075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -6974,7 +7099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -6998,7 +7123,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7022,7 +7147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7171,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7088,23 +7213,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7112,7 +7237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7123,7 +7248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7131,7 +7256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7139,7 +7264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7150,7 +7275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7161,7 +7286,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0ADB8-93E9-4594-869A-68566E03678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4BE21C-CD79-4A4F-9200-9B3CD2A64529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="490">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1505,6 +1505,12 @@
   </si>
   <si>
     <t>Baumdiagramme vervollständigen (Anwendung der Pfadadditionsregel).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme komplexerer Sachverhalte aufstellen,</t>
+  </si>
+  <si>
+    <t>stochastik_mehrstufige-zufallsexperimente_baumdiagramm-aufstellen</t>
   </si>
 </sst>
 </file>
@@ -1631,12 +1637,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F40" totalsRowShown="0">
-  <autoFilter ref="A1:F40" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="A2:A39"/>
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="C2:C39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F37" totalsRowShown="0">
+  <autoFilter ref="A1:F37" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
+    <sortCondition ref="A2:A36"/>
+    <sortCondition ref="B2:B36"/>
+    <sortCondition ref="C2:C36"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
@@ -1990,22 +1996,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2353,99 +2359,123 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>489</v>
       </c>
       <c r="F23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
       </c>
-      <c r="D24" t="s">
-        <v>487</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>470</v>
       </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2453,31 +2483,67 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2485,19 +2551,19 @@
         <v>475</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>480</v>
-      </c>
-      <c r="E33" t="s">
-        <v>481</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="F33" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2505,19 +2571,19 @@
         <v>475</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E34" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="F34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2525,19 +2591,19 @@
         <v>475</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2545,75 +2611,15 @@
         <v>475</v>
       </c>
       <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>484</v>
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" t="s">
+        <v>453</v>
       </c>
       <c r="F36" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>456</v>
-      </c>
-      <c r="E37" t="s">
-        <v>457</v>
-      </c>
-      <c r="F37" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>475</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>454</v>
-      </c>
-      <c r="E39" t="s">
-        <v>453</v>
-      </c>
-      <c r="F39" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2634,20 +2640,20 @@
       <selection activeCell="F168" sqref="F168:G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3802,7 +3808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4350,7 +4356,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4889,7 +4895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4961,7 +4967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5249,7 +5255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5614,7 +5620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5861,7 +5867,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6152,7 +6158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6254,7 +6260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6563,7 +6569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6589,7 +6595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6667,7 +6673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6691,7 +6697,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7213,23 +7219,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7237,7 +7243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4BE21C-CD79-4A4F-9200-9B3CD2A64529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E8AA7-C448-4B83-9F98-665578014A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="490">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1507,10 +1507,10 @@
     <t>Baumdiagramme vervollständigen (Anwendung der Pfadadditionsregel).</t>
   </si>
   <si>
-    <t>Baumdiagramme komplexerer Sachverhalte aufstellen,</t>
-  </si>
-  <si>
     <t>stochastik_mehrstufige-zufallsexperimente_baumdiagramm-aufstellen</t>
+  </si>
+  <si>
+    <t>Baumdiagramme komplexerer Sachverhalte aufstellen und interpretieren,</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +1999,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2450,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" t="s">
         <v>488</v>
-      </c>
-      <c r="E23" t="s">
-        <v>489</v>
       </c>
       <c r="F23" t="s">
         <v>479</v>
@@ -2463,24 +2463,15 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E8AA7-C448-4B83-9F98-665578014A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D17B9-89DD-4127-85A2-89AF8C153C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="499">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1511,6 +1511,33 @@
   </si>
   <si>
     <t>Baumdiagramme komplexerer Sachverhalte aufstellen und interpretieren,</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln vervollständigen.</t>
+  </si>
+  <si>
+    <t>Baumdiagramme unter Verwendung stochastischer Unabhängigkeit vervollständigen.</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln unter Verwendung  stochastischer Unabhängigkeit vervollständigen.</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_InfoUnabh</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (mit Verwendung stochastischer Unabhängigkeit).</t>
   </si>
 </sst>
 </file>
@@ -1540,21 +1567,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1562,23 +1583,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1586,7 +1596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1637,12 +1646,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F37" totalsRowShown="0">
-  <autoFilter ref="A1:F37" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
-    <sortCondition ref="A2:A36"/>
-    <sortCondition ref="B2:B36"/>
-    <sortCondition ref="C2:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F43" totalsRowShown="0">
+  <autoFilter ref="A1:F43" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E42">
+    <sortCondition ref="A2:A42"/>
+    <sortCondition ref="B2:B42"/>
+    <sortCondition ref="C2:C42"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
@@ -1996,10 +2005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
-  <dimension ref="A1:F36"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2036,7 +2046,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2047,13 +2069,13 @@
         <v>472</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
         <v>478</v>
@@ -2067,13 +2089,13 @@
         <v>472</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>478</v>
@@ -2087,13 +2109,13 @@
         <v>472</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>478</v>
@@ -2107,13 +2129,13 @@
         <v>472</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>478</v>
@@ -2127,13 +2149,13 @@
         <v>472</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
         <v>478</v>
@@ -2147,13 +2169,13 @@
         <v>472</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
         <v>478</v>
@@ -2167,13 +2189,13 @@
         <v>472</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>478</v>
@@ -2187,13 +2209,13 @@
         <v>472</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
         <v>478</v>
@@ -2207,13 +2229,13 @@
         <v>472</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>478</v>
@@ -2227,13 +2249,13 @@
         <v>472</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>478</v>
@@ -2247,13 +2269,13 @@
         <v>472</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>478</v>
@@ -2267,13 +2289,13 @@
         <v>472</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>478</v>
@@ -2287,13 +2309,13 @@
         <v>472</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>478</v>
@@ -2307,13 +2329,13 @@
         <v>472</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>478</v>
@@ -2327,13 +2349,13 @@
         <v>472</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
         <v>478</v>
@@ -2344,16 +2366,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>485</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>478</v>
@@ -2367,13 +2389,13 @@
         <v>470</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>478</v>
@@ -2387,13 +2409,13 @@
         <v>470</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
         <v>478</v>
@@ -2407,13 +2429,13 @@
         <v>470</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
         <v>478</v>
@@ -2427,16 +2449,16 @@
         <v>470</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>489</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>488</v>
       </c>
       <c r="F22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2444,133 +2466,158 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
+      <c r="B24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>491</v>
+      </c>
+      <c r="E24" t="s">
+        <v>494</v>
+      </c>
+      <c r="F24" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
+      <c r="B25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
+      <c r="B26" t="s">
+        <v>471</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>492</v>
+      </c>
+      <c r="E27" t="s">
+        <v>496</v>
+      </c>
+      <c r="F27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E29" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E30" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>450</v>
-      </c>
-      <c r="E31" t="s">
-        <v>482</v>
-      </c>
-      <c r="F31" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>356</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>475</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F33" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>475</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>456</v>
-      </c>
-      <c r="E34" t="s">
-        <v>457</v>
-      </c>
-      <c r="F34" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2579,16 +2626,16 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>452</v>
       </c>
       <c r="F35" t="s">
         <v>478</v>
@@ -2602,15 +2649,135 @@
         <v>475</v>
       </c>
       <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>480</v>
+      </c>
+      <c r="E36" t="s">
+        <v>481</v>
+      </c>
+      <c r="F36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E37" t="s">
+        <v>482</v>
+      </c>
+      <c r="F37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>483</v>
+      </c>
+      <c r="E39" t="s">
+        <v>484</v>
+      </c>
+      <c r="F39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>456</v>
+      </c>
+      <c r="E40" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D42" t="s">
         <v>454</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E42" t="s">
         <v>453</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F42" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2627,8 +2794,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168:G168"/>
+    <sheetView topLeftCell="D168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0ADB8-93E9-4594-869A-68566E03678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA04C0-E58B-4339-8589-DD8A946ACFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="501">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1505,6 +1505,45 @@
   </si>
   <si>
     <t>Baumdiagramme vervollständigen (Anwendung der Pfadadditionsregel).</t>
+  </si>
+  <si>
+    <t>stochastik_mehrstufige-zufallsexperimente_baumdiagramm-aufstellen</t>
+  </si>
+  <si>
+    <t>Baumdiagramme komplexerer Sachverhalte aufstellen und interpretieren,</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln vervollständigen.</t>
+  </si>
+  <si>
+    <t>Baumdiagramme unter Verwendung stochastischer Unabhängigkeit vervollständigen.</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln unter Verwendung  stochastischer Unabhängigkeit vervollständigen.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_InfoUnabh</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten und Prüfung auf stochastische Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln interpretieren (mit bedingten Wahrscheinlichkeiten und Prüfung auf stochastische Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vier-Felder-Tafeln interpretieren.</t>
   </si>
 </sst>
 </file>
@@ -1534,21 +1573,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1556,23 +1589,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1580,7 +1602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1990,22 +2011,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2025,15 +2047,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2041,19 +2075,19 @@
         <v>472</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2061,19 +2095,19 @@
         <v>472</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2081,19 +2115,19 @@
         <v>472</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2101,19 +2135,19 @@
         <v>472</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2121,19 +2155,19 @@
         <v>472</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2141,19 +2175,19 @@
         <v>472</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2161,19 +2195,19 @@
         <v>472</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2181,19 +2215,19 @@
         <v>472</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2201,19 +2235,19 @@
         <v>472</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2221,19 +2255,19 @@
         <v>472</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2241,19 +2275,19 @@
         <v>472</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2261,19 +2295,19 @@
         <v>472</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2281,19 +2315,19 @@
         <v>472</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2301,19 +2335,19 @@
         <v>472</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2321,163 +2355,319 @@
         <v>472</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>485</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
       </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>488</v>
       </c>
       <c r="F22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="F24" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>498</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>490</v>
+      </c>
+      <c r="E26" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>471</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>496</v>
+      </c>
+      <c r="E30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>455</v>
+      </c>
+      <c r="E32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +2687,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2517,7 +2707,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2727,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2547,17 +2737,17 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>483</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>484</v>
       </c>
       <c r="F36" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2767,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2597,7 +2787,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2630,24 +2820,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168:G168"/>
+    <sheetView topLeftCell="D168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2866,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +3066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2900,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2924,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +3138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2992,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3062,7 +3252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3132,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3364,7 +3554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3594,7 +3784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3698,7 +3888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3802,7 +3992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +4018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +4044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +4070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +4096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +4122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +4148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -3984,7 +4174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4010,7 +4200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4212,7 +4402,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4235,7 +4425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4258,7 +4448,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4281,7 +4471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4304,7 +4494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4327,7 +4517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4350,7 +4540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4373,7 +4563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4421,7 +4611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4445,7 +4635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4469,7 +4659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4493,7 +4683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4517,7 +4707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4541,7 +4731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4565,7 +4755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4591,7 +4781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4617,7 +4807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4643,7 +4833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4669,7 +4859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4695,7 +4885,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4721,7 +4911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4745,7 +4935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4769,7 +4959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4793,7 +4983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4817,7 +5007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -4841,7 +5031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -4865,7 +5055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -4889,7 +5079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -4913,7 +5103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -4937,7 +5127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -4961,7 +5151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -4985,7 +5175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5009,7 +5199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5033,7 +5223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5057,7 +5247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5081,7 +5271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5105,7 +5295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5129,7 +5319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5153,7 +5343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5177,7 +5367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5201,7 +5391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5225,7 +5415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5249,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5273,7 +5463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5299,7 +5489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5320,7 +5510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5341,7 +5531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5362,7 +5552,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5383,7 +5573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5404,7 +5594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5425,7 +5615,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5446,7 +5636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5467,7 +5657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5488,7 +5678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5509,7 +5699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5530,7 +5720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5551,7 +5741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5572,7 +5762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5593,7 +5783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5614,7 +5804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5635,7 +5825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5656,7 +5846,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5677,7 +5867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5700,7 +5890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5723,7 +5913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5746,7 +5936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5769,7 +5959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5792,7 +5982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5815,7 +6005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -5838,7 +6028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -5861,7 +6051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -5884,7 +6074,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -5908,7 +6098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -5932,7 +6122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -5956,7 +6146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -5980,7 +6170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6004,7 +6194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6028,7 +6218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6078,7 +6268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6126,7 +6316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6152,7 +6342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6204,7 +6394,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6228,7 +6418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6254,7 +6444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6280,7 +6470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +6496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6332,7 +6522,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6358,7 +6548,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6382,7 +6572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6406,7 +6596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6452,7 +6642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6471,7 +6661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6490,7 +6680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6511,7 +6701,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6537,7 +6727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6563,7 +6753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6589,7 +6779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6615,7 +6805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6641,7 +6831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6667,7 +6857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6691,7 +6881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6715,7 +6905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6739,7 +6929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6763,7 +6953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +6977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -6811,7 +7001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -6835,7 +7025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -6859,7 +7049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +7073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6907,7 +7097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -6931,7 +7121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -6955,7 +7145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -6979,7 +7169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7003,7 +7193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7027,7 +7217,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7051,7 +7241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7265,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +7289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7123,7 +7313,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7147,7 +7337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7171,7 +7361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7213,23 +7403,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7237,7 +7427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7248,7 +7438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7256,7 +7446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7275,7 +7465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA04C0-E58B-4339-8589-DD8A946ACFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2065C4E-5570-4F29-AA40-257D08BD6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -2014,20 +2014,20 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="104.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="109.85546875" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2824,20 +2824,20 @@
       <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7403,23 +7403,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2065C4E-5570-4F29-AA40-257D08BD6643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1D5CD-FB50-432C-8348-D37251CF7AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="510">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1544,6 +1544,33 @@
   </si>
   <si>
     <t>Vier-Felder-Tafeln interpretieren.</t>
+  </si>
+  <si>
+    <t>prüfen, ob eine Zufallsgröße binomialverteilt ist.</t>
+  </si>
+  <si>
+    <t>die Parameter der Bernoulli-Formel im Sachzusammenhang interpretieren.</t>
+  </si>
+  <si>
+    <t>stochastik_binomialverteilung_pruefung-binomial</t>
+  </si>
+  <si>
+    <t>stochastik_binomialverteilung_interpretation-parameter</t>
+  </si>
+  <si>
+    <t>zufallsgroessen</t>
+  </si>
+  <si>
+    <t>den Erwartungswert und die Standardabweichung im Sachzusammenhang interpretieren.</t>
+  </si>
+  <si>
+    <t>die Wahrscheinlichkeitsverteilung und das Histogramm einer Zufallsgröße aufstellen.</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsgroessen_interpretationen</t>
+  </si>
+  <si>
+    <t>stochastik_zufallsgroessen_aufstellen-wkt-verteilung</t>
   </si>
 </sst>
 </file>
@@ -1652,12 +1679,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F40" totalsRowShown="0">
-  <autoFilter ref="A1:F40" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="A2:A39"/>
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="C2:C39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F50" totalsRowShown="0">
+  <autoFilter ref="A1:F50" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="A4:A41"/>
+    <sortCondition ref="B4:B41"/>
+    <sortCondition ref="C4:C41"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
@@ -2012,10 +2039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,13 +2105,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="F4" t="s">
         <v>478</v>
@@ -2118,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="F5" t="s">
         <v>478</v>
@@ -2138,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>478</v>
@@ -2158,10 +2185,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>478</v>
@@ -2178,10 +2205,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>478</v>
@@ -2198,10 +2225,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>478</v>
@@ -2218,10 +2245,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>478</v>
@@ -2238,10 +2265,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>444</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>478</v>
@@ -2258,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
         <v>478</v>
@@ -2278,10 +2305,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>478</v>
@@ -2298,10 +2325,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
         <v>478</v>
@@ -2318,10 +2345,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>478</v>
@@ -2338,10 +2365,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>478</v>
@@ -2358,10 +2385,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>478</v>
@@ -2372,16 +2399,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
         <v>478</v>
@@ -2392,16 +2419,16 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>486</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
         <v>478</v>
@@ -2415,13 +2442,13 @@
         <v>470</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
         <v>478</v>
@@ -2435,13 +2462,13 @@
         <v>470</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>486</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>478</v>
@@ -2455,16 +2482,16 @@
         <v>470</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2472,16 +2499,16 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>478</v>
@@ -2492,19 +2519,19 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E24" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,13 +2542,13 @@
         <v>471</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
         <v>478</v>
@@ -2535,13 +2562,13 @@
         <v>471</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F26" t="s">
         <v>478</v>
@@ -2555,13 +2582,13 @@
         <v>471</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F27" t="s">
         <v>478</v>
@@ -2575,13 +2602,13 @@
         <v>471</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F28" t="s">
         <v>478</v>
@@ -2595,13 +2622,13 @@
         <v>471</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
         <v>478</v>
@@ -2615,13 +2642,13 @@
         <v>471</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>495</v>
       </c>
       <c r="F30" t="s">
         <v>478</v>
@@ -2635,13 +2662,13 @@
         <v>471</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
         <v>478</v>
@@ -2655,13 +2682,13 @@
         <v>471</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="E32" t="s">
-        <v>452</v>
+        <v>281</v>
       </c>
       <c r="F32" t="s">
         <v>478</v>
@@ -2672,19 +2699,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="E33" t="s">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,19 +2719,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E34" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="F34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,16 +2742,16 @@
         <v>475</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>481</v>
       </c>
       <c r="F35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,13 +2762,13 @@
         <v>475</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="E36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F36" t="s">
         <v>479</v>
@@ -2755,13 +2782,13 @@
         <v>475</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
         <v>478</v>
@@ -2775,16 +2802,16 @@
         <v>475</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="F38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2822,206 @@
         <v>475</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E39" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F39" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" t="s">
+        <v>453</v>
+      </c>
+      <c r="F41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" t="s">
+        <v>508</v>
+      </c>
+      <c r="F44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>507</v>
+      </c>
+      <c r="E45" t="s">
+        <v>509</v>
+      </c>
+      <c r="F45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>505</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2820,8 +3037,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="D168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView topLeftCell="C180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185:G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1D5CD-FB50-432C-8348-D37251CF7AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D9937-56F8-434E-8655-58E67A477B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="511">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1571,6 +1571,9 @@
   </si>
   <si>
     <t>stochastik_zufallsgroessen_aufstellen-wkt-verteilung</t>
+  </si>
+  <si>
+    <t>die Parameter von Intervallwahrscheinlichkeiten der Binomialverteilung entsprechend der Eingabe im Taschenrechner angeben.</t>
   </si>
 </sst>
 </file>
@@ -1600,15 +1603,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1616,12 +1625,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1629,6 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2041,8 +2062,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,10 +2146,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F4" t="s">
         <v>478</v>
@@ -2144,11 +2165,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E5" t="s">
-        <v>460</v>
+      <c r="D5" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="F5" t="s">
         <v>478</v>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D9937-56F8-434E-8655-58E67A477B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF1317-4A47-4A94-A50C-86543733836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="512">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1574,6 +1574,9 @@
   </si>
   <si>
     <t>die Parameter von Intervallwahrscheinlichkeiten der Binomialverteilung entsprechend der Eingabe im Taschenrechner angeben.</t>
+  </si>
+  <si>
+    <t>stochastik</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1700,8 +1703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F50" totalsRowShown="0">
-  <autoFilter ref="A1:F50" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F48" totalsRowShown="0">
+  <autoFilter ref="A1:F48" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2060,22 +2063,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="109.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="109.86328125" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2095,9 +2098,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
         <v>472</v>
@@ -2115,9 +2118,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
         <v>472</v>
@@ -2135,9 +2138,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
@@ -2155,9 +2158,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
@@ -2175,9 +2178,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
         <v>472</v>
@@ -2195,9 +2198,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
         <v>472</v>
@@ -2215,9 +2218,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
         <v>472</v>
@@ -2235,9 +2238,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
         <v>472</v>
@@ -2255,9 +2258,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s">
         <v>472</v>
@@ -2275,9 +2278,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
         <v>472</v>
@@ -2295,9 +2298,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
@@ -2315,9 +2318,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
         <v>472</v>
@@ -2335,9 +2338,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
         <v>472</v>
@@ -2355,9 +2358,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
         <v>472</v>
@@ -2375,9 +2378,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>472</v>
@@ -2395,9 +2398,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
@@ -2415,9 +2418,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
         <v>472</v>
@@ -2435,9 +2438,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s">
         <v>472</v>
@@ -2455,9 +2458,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
@@ -2475,9 +2478,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
@@ -2495,9 +2498,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
@@ -2515,9 +2518,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
@@ -2535,9 +2538,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
@@ -2555,9 +2558,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s">
         <v>471</v>
@@ -2575,9 +2578,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B26" t="s">
         <v>471</v>
@@ -2595,9 +2598,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B27" t="s">
         <v>471</v>
@@ -2615,9 +2618,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
@@ -2635,9 +2638,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B29" t="s">
         <v>471</v>
@@ -2655,9 +2658,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
@@ -2675,9 +2678,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -2695,9 +2698,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B32" t="s">
         <v>471</v>
@@ -2715,9 +2718,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B33" t="s">
         <v>471</v>
@@ -2735,9 +2738,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B34" t="s">
         <v>471</v>
@@ -2755,9 +2758,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -2775,9 +2778,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B36" t="s">
         <v>475</v>
@@ -2795,9 +2798,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B37" t="s">
         <v>475</v>
@@ -2815,9 +2818,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B38" t="s">
         <v>475</v>
@@ -2835,9 +2838,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B39" t="s">
         <v>475</v>
@@ -2855,9 +2858,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B40" t="s">
         <v>475</v>
@@ -2875,9 +2878,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B41" t="s">
         <v>475</v>
@@ -2895,9 +2898,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B42" t="s">
         <v>505</v>
@@ -2915,9 +2918,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B43" t="s">
         <v>505</v>
@@ -2935,9 +2938,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B44" t="s">
         <v>505</v>
@@ -2955,9 +2958,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B45" t="s">
         <v>505</v>
@@ -2975,9 +2978,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B46" t="s">
         <v>505</v>
@@ -2995,9 +2998,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B47" t="s">
         <v>505</v>
@@ -3015,9 +3018,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>511</v>
       </c>
       <c r="B48" t="s">
         <v>505</v>
@@ -3033,16 +3036,6 @@
       </c>
       <c r="F48" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3062,20 +3055,20 @@
       <selection activeCell="F185" sqref="F185:G189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3104,7 +3097,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3304,7 +3297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3376,7 +3369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3512,7 +3505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3536,7 +3529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3584,7 +3577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3610,7 +3603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3662,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +3681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3740,7 +3733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3792,7 +3785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3842,7 +3835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3892,7 +3885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3970,7 +3963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +3989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4022,7 +4015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4074,7 +4067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4152,7 +4145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4178,7 +4171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4204,7 +4197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4230,7 +4223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4282,7 +4275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4308,7 +4301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4360,7 +4353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4412,7 +4405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4464,7 +4457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4490,7 +4483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4539,7 +4532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +4574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4599,7 +4592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4640,7 +4633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4663,7 +4656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4686,7 +4679,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4709,7 +4702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4732,7 +4725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4755,7 +4748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4778,7 +4771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4801,7 +4794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4825,7 +4818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4849,7 +4842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4873,7 +4866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4897,7 +4890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4921,7 +4914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4945,7 +4938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4969,7 +4962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4993,7 +4986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5019,7 +5012,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5045,7 +5038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5071,7 +5064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5097,7 +5090,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5149,7 +5142,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5173,7 +5166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5197,7 +5190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5221,7 +5214,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5245,7 +5238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5269,7 +5262,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5293,7 +5286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5317,7 +5310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5341,7 +5334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5389,7 +5382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5413,7 +5406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5437,7 +5430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5461,7 +5454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5485,7 +5478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5509,7 +5502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5581,7 +5574,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5629,7 +5622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5653,7 +5646,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5677,7 +5670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5701,7 +5694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5727,7 +5720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5748,7 +5741,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5769,7 +5762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5790,7 +5783,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5811,7 +5804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5832,7 +5825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5853,7 +5846,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5874,7 +5867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5895,7 +5888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5916,7 +5909,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5937,7 +5930,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5958,7 +5951,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5979,7 +5972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6000,7 +5993,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6021,7 +6014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6042,7 +6035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6063,7 +6056,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6084,7 +6077,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6105,7 +6098,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6128,7 +6121,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6151,7 +6144,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6174,7 +6167,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6197,7 +6190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6220,7 +6213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6243,7 +6236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6266,7 +6259,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6289,7 +6282,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6312,7 +6305,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6336,7 +6329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6360,7 +6353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6384,7 +6377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6401,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +6425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6456,7 +6449,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6480,7 +6473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6506,7 +6499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6530,7 +6523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6554,7 +6547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6580,7 +6573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6632,7 +6625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6656,7 +6649,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6682,7 +6675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6708,7 +6701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6734,7 +6727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6786,7 +6779,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6810,7 +6803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6834,7 +6827,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6858,7 +6851,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6880,7 +6873,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6899,7 +6892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6918,7 +6911,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6939,7 +6932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6965,7 +6958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6991,7 +6984,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7017,7 +7010,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7043,7 +7036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7069,7 +7062,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7119,7 +7112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7143,7 +7136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7167,7 +7160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7215,7 +7208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7239,7 +7232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7287,7 +7280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7311,7 +7304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7335,7 +7328,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7359,7 +7352,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7383,7 +7376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7407,7 +7400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7431,7 +7424,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7479,7 +7472,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7503,7 +7496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7551,7 +7544,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7575,7 +7568,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7599,7 +7592,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7641,23 +7634,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7665,7 +7658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7676,7 +7669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +7677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7692,7 +7685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7703,7 +7696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7714,7 +7707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF1317-4A47-4A94-A50C-86543733836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF71AC7-1131-4754-8966-D039BF9643AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="520">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1510,9 +1510,6 @@
     <t>stochastik_mehrstufige-zufallsexperimente_baumdiagramm-aufstellen</t>
   </si>
   <si>
-    <t>Baumdiagramme komplexerer Sachverhalte aufstellen und interpretieren,</t>
-  </si>
-  <si>
     <t>Vier-Felder-Tafeln vervollständigen.</t>
   </si>
   <si>
@@ -1577,6 +1574,33 @@
   </si>
   <si>
     <t>stochastik</t>
+  </si>
+  <si>
+    <t>Versuchsanzahlen binomialverteilter Zufallsgrößen bestimmen.</t>
+  </si>
+  <si>
+    <t>Trefferwahrscheinlichkeiten binomialverteilter Zufallsgrößen bestimmen.</t>
+  </si>
+  <si>
+    <t>Intervallgrenzen binomialverteilter Zufallsgrößen bestimmen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Versuchsanzahl und Trefferwahrscheinlichkeit den Erwartungswert und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Versuchsanzahl und gegebenen Erwartungswert die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Trefferwahrscheinlichkeit  und gegebenen Erwartungswert die Versuchsanzahl und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Versuchsanzahl und Standardabweichung die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Trefferwahrscheinlichkeit und Standardabweichung den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren,</t>
   </si>
 </sst>
 </file>
@@ -2065,20 +2089,20 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="109.86328125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="109.85546875" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2098,9 +2122,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s">
         <v>472</v>
@@ -2109,18 +2133,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
         <v>472</v>
@@ -2129,18 +2153,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
@@ -2158,9 +2182,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
@@ -2169,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>458</v>
@@ -2178,9 +2202,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>472</v>
@@ -2198,9 +2222,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>472</v>
@@ -2218,9 +2242,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>472</v>
@@ -2238,9 +2262,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>472</v>
@@ -2249,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="E9" t="s">
         <v>207</v>
@@ -2258,9 +2282,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
         <v>472</v>
@@ -2269,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="E10" t="s">
         <v>208</v>
@@ -2278,9 +2302,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>472</v>
@@ -2289,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
@@ -2298,9 +2322,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
@@ -2309,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>514</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -2318,9 +2342,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
         <v>472</v>
@@ -2329,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="E13" t="s">
         <v>112</v>
@@ -2338,9 +2362,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s">
         <v>472</v>
@@ -2349,7 +2373,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>516</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -2358,9 +2382,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
         <v>472</v>
@@ -2369,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>517</v>
       </c>
       <c r="E15" t="s">
         <v>113</v>
@@ -2378,9 +2402,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>472</v>
@@ -2389,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -2398,9 +2422,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
@@ -2418,9 +2442,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
         <v>472</v>
@@ -2438,9 +2462,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
         <v>472</v>
@@ -2458,9 +2482,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
@@ -2478,9 +2502,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
@@ -2498,9 +2522,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
@@ -2518,9 +2542,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
@@ -2538,9 +2562,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
@@ -2549,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="E24" t="s">
         <v>488</v>
@@ -2558,9 +2582,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B25" t="s">
         <v>471</v>
@@ -2578,9 +2602,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
         <v>471</v>
@@ -2589,18 +2613,18 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F26" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B27" t="s">
         <v>471</v>
@@ -2609,7 +2633,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E27" t="s">
         <v>204</v>
@@ -2618,9 +2642,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
@@ -2629,18 +2653,18 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B29" t="s">
         <v>471</v>
@@ -2649,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
         <v>210</v>
@@ -2658,9 +2682,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
@@ -2669,18 +2693,18 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F30" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -2689,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E31" t="s">
         <v>211</v>
@@ -2698,9 +2722,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
         <v>471</v>
@@ -2709,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -2718,9 +2742,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B33" t="s">
         <v>471</v>
@@ -2729,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E33" t="s">
         <v>206</v>
@@ -2738,9 +2762,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B34" t="s">
         <v>471</v>
@@ -2758,9 +2782,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -2778,9 +2802,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s">
         <v>475</v>
@@ -2798,9 +2822,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B37" t="s">
         <v>475</v>
@@ -2818,9 +2842,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
         <v>475</v>
@@ -2838,9 +2862,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" t="s">
         <v>475</v>
@@ -2858,9 +2882,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B40" t="s">
         <v>475</v>
@@ -2878,9 +2902,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B41" t="s">
         <v>475</v>
@@ -2898,12 +2922,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2918,12 +2942,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2938,52 +2962,52 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F44" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F45" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2998,12 +3022,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B47" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -3018,12 +3042,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -3055,20 +3079,20 @@
       <selection activeCell="F185" sqref="F185:G189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3097,7 +3121,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3175,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3225,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3249,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3297,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3321,7 +3345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3345,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3413,7 +3437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3437,7 +3461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3461,7 +3485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3529,7 +3553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3553,7 +3577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3681,7 +3705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +3809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +3859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +3909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3937,7 +3961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3963,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3989,7 +4013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4015,7 +4039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4041,7 +4065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4067,7 +4091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4093,7 +4117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4145,7 +4169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4197,7 +4221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4353,7 +4377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4379,7 +4403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4405,7 +4429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4483,7 +4507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4509,7 +4533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4532,7 +4556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4592,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4610,7 +4634,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4633,7 +4657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4656,7 +4680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4679,7 +4703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4702,7 +4726,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4725,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4748,7 +4772,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4771,7 +4795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4794,7 +4818,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4818,7 +4842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4842,7 +4866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4866,7 +4890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4890,7 +4914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4914,7 +4938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4938,7 +4962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4962,7 +4986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -4986,7 +5010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5012,7 +5036,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5038,7 +5062,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5064,7 +5088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5090,7 +5114,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5116,7 +5140,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5142,7 +5166,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5166,7 +5190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5190,7 +5214,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5214,7 +5238,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5238,7 +5262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5262,7 +5286,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5286,7 +5310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5310,7 +5334,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5334,7 +5358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5358,7 +5382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5382,7 +5406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5406,7 +5430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5430,7 +5454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5454,7 +5478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5478,7 +5502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5502,7 +5526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5526,7 +5550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5550,7 +5574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5574,7 +5598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5598,7 +5622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5622,7 +5646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5646,7 +5670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5670,7 +5694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5694,7 +5718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5720,7 +5744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5741,7 +5765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5762,7 +5786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5783,7 +5807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5804,7 +5828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5825,7 +5849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5846,7 +5870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5867,7 +5891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5888,7 +5912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5909,7 +5933,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5930,7 +5954,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5951,7 +5975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -5972,7 +5996,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -5993,7 +6017,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6014,7 +6038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6035,7 +6059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6056,7 +6080,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6077,7 +6101,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6098,7 +6122,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6121,7 +6145,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6144,7 +6168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6167,7 +6191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6190,7 +6214,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6213,7 +6237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6236,7 +6260,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6259,7 +6283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6282,7 +6306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6305,7 +6329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6329,7 +6353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6353,7 +6377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6377,7 +6401,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6401,7 +6425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6425,7 +6449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6449,7 +6473,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6473,7 +6497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6499,7 +6523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6523,7 +6547,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6547,7 +6571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6573,7 +6597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6599,7 +6623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6625,7 +6649,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6649,7 +6673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6675,7 +6699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6701,7 +6725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6753,7 +6777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6779,7 +6803,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6803,7 +6827,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6827,7 +6851,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6851,7 +6875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6873,7 +6897,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6892,7 +6916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6911,7 +6935,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6932,7 +6956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6958,7 +6982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -6984,7 +7008,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7010,7 +7034,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7036,7 +7060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7062,7 +7086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7088,7 +7112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7136,7 +7160,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7160,7 +7184,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7184,7 +7208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7208,7 +7232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7232,7 +7256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7256,7 +7280,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7280,7 +7304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7304,7 +7328,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7328,7 +7352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7352,7 +7376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7376,7 +7400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7400,7 +7424,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +7448,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7448,7 +7472,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7472,7 +7496,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7496,7 +7520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7544,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7544,7 +7568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7592,7 +7616,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7634,23 +7658,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7658,7 +7682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7669,7 +7693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7677,7 +7701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7685,7 +7709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7696,7 +7720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7707,7 +7731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF71AC7-1131-4754-8966-D039BF9643AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75285CE0-308A-4D68-A299-3BC1AAA032E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1594,13 +1594,13 @@
     <t>bei gegebener Trefferwahrscheinlichkeit  und gegebenen Erwartungswert die Versuchsanzahl und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
-    <t>bei gegebener Versuchsanzahl und Standardabweichung die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
     <t>bei gegebener Trefferwahrscheinlichkeit und Standardabweichung den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
     <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren,</t>
+  </si>
+  <si>
+    <t>bei gegebenen Erwartungswert und gegebener Standardabweichung die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2089,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E15" t="s">
         <v>113</v>
@@ -2413,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
         <v>488</v>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75285CE0-308A-4D68-A299-3BC1AAA032E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4A038-04AA-4037-9640-A1EF3D9B80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="524">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1531,9 +1531,6 @@
     <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (ohne Verwendung stochastischer Unabhängigkeit).</t>
   </si>
   <si>
-    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
     <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten und Prüfung auf stochastische Unabhängigkeit).</t>
   </si>
   <si>
@@ -1588,19 +1585,34 @@
     <t>bei gegebener Versuchsanzahl und Trefferwahrscheinlichkeit den Erwartungswert und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
-    <t>bei gegebener Versuchsanzahl und gegebenen Erwartungswert die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>bei gegebener Trefferwahrscheinlichkeit  und gegebenen Erwartungswert die Versuchsanzahl und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
     <t>bei gegebener Trefferwahrscheinlichkeit und Standardabweichung den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
     <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren,</t>
   </si>
   <si>
-    <t>bei gegebenen Erwartungswert und gegebener Standardabweichung die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+    <t>Wahrscheinlichkeiten mithilfe absoluter Häufigkeiten berechnen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mithilfe eines Histogramms der Einzelwahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mithilfe eines Histogramms der kumulierten Wahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Versuchsanzahl und gegebenem Erwartungswert die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebener Trefferwahrscheinlichkeit  und gegebenem Erwartungswert die Versuchsanzahl und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebenem Erwartungswert und gegebener Standardabweichung die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten ohne Baumdiagramm und Vier-Felder-Tafel berechnen (unter Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (ohne bedingte Wahrscheinlichkeiten).</t>
   </si>
 </sst>
 </file>
@@ -2089,8 +2101,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2136,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>472</v>
@@ -2133,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F2" t="s">
         <v>479</v>
@@ -2144,7 +2156,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>472</v>
@@ -2153,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F3" t="s">
         <v>479</v>
@@ -2164,7 +2176,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
@@ -2184,7 +2196,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
@@ -2193,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>458</v>
@@ -2204,7 +2216,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>472</v>
@@ -2224,7 +2236,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
         <v>472</v>
@@ -2233,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -2244,7 +2256,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>472</v>
@@ -2253,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -2264,7 +2276,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>472</v>
@@ -2273,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E9" t="s">
         <v>207</v>
@@ -2284,7 +2296,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>472</v>
@@ -2293,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
         <v>208</v>
@@ -2304,7 +2316,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
         <v>472</v>
@@ -2313,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
@@ -2324,7 +2336,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
@@ -2333,7 +2345,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -2344,7 +2356,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s">
         <v>472</v>
@@ -2353,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E13" t="s">
         <v>112</v>
@@ -2364,7 +2376,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
         <v>472</v>
@@ -2373,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -2384,7 +2396,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>472</v>
@@ -2393,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
         <v>113</v>
@@ -2404,7 +2416,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>472</v>
@@ -2413,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -2424,7 +2436,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
@@ -2444,7 +2456,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
         <v>472</v>
@@ -2464,7 +2476,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" t="s">
         <v>472</v>
@@ -2484,7 +2496,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
@@ -2504,7 +2516,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
@@ -2524,7 +2536,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
@@ -2544,7 +2556,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
@@ -2553,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>523</v>
       </c>
       <c r="E23" t="s">
         <v>203</v>
@@ -2564,7 +2576,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
@@ -2573,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E24" t="s">
         <v>488</v>
@@ -2584,7 +2596,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" t="s">
         <v>471</v>
@@ -2604,7 +2616,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
         <v>471</v>
@@ -2624,7 +2636,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" t="s">
         <v>471</v>
@@ -2633,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E27" t="s">
         <v>204</v>
@@ -2644,7 +2656,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" t="s">
         <v>471</v>
@@ -2673,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E29" t="s">
         <v>210</v>
@@ -2684,7 +2696,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
@@ -2704,7 +2716,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -2713,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E31" t="s">
         <v>211</v>
@@ -2724,7 +2736,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" t="s">
         <v>471</v>
@@ -2744,7 +2756,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B33" t="s">
         <v>471</v>
@@ -2753,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
         <v>206</v>
@@ -2764,7 +2776,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B34" t="s">
         <v>471</v>
@@ -2784,7 +2796,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -2804,7 +2816,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B36" t="s">
         <v>475</v>
@@ -2824,7 +2836,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" t="s">
         <v>475</v>
@@ -2844,7 +2856,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B38" t="s">
         <v>475</v>
@@ -2864,7 +2876,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39" t="s">
         <v>475</v>
@@ -2873,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="E39" t="s">
         <v>457</v>
@@ -2884,7 +2896,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B40" t="s">
         <v>475</v>
@@ -2904,7 +2916,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" t="s">
         <v>475</v>
@@ -2924,10 +2936,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2944,10 +2956,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2964,19 +2976,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F44" t="s">
         <v>479</v>
@@ -2984,19 +2996,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F45" t="s">
         <v>479</v>
@@ -3004,10 +3016,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -3024,10 +3036,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -3044,10 +3056,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C48">
         <v>7</v>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D4A038-04AA-4037-9640-A1EF3D9B80E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD980B-80CC-4259-9DE1-0656E314B8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1588,9 +1588,6 @@
     <t>bei gegebener Trefferwahrscheinlichkeit und Standardabweichung den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
-    <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren,</t>
-  </si>
-  <si>
     <t>Wahrscheinlichkeiten mithilfe absoluter Häufigkeiten berechnen.</t>
   </si>
   <si>
@@ -1613,6 +1610,9 @@
   </si>
   <si>
     <t>Baumdiagramme interpretieren (ohne bedingte Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren.</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E13" t="s">
         <v>112</v>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -2405,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E15" t="s">
         <v>113</v>
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E23" t="s">
         <v>203</v>
@@ -2585,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E24" t="s">
         <v>488</v>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E33" t="s">
         <v>206</v>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E39" t="s">
         <v>457</v>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD980B-80CC-4259-9DE1-0656E314B8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21B8757-F0D8-43D7-B85D-ADE12B499B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1492,9 +1492,6 @@
     <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_grundbegriffe-zufallsexperiment</t>
   </si>
   <si>
-    <t>entschieden, ob ein Laplace-Experiment vorliegt.</t>
-  </si>
-  <si>
     <t>stochastik_zufallsexperimente-und-wahrscheinlichkeiten_laplace</t>
   </si>
   <si>
@@ -1613,6 +1610,9 @@
   </si>
   <si>
     <t>Baumdiagramme komplexer Sachverhalte aufstellen und interpretieren.</t>
+  </si>
+  <si>
+    <t>entscheiden, ob ein Laplace-Experiment vorliegt.</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2101,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>472</v>
@@ -2145,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
         <v>479</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>472</v>
@@ -2165,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F3" t="s">
         <v>479</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>458</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>472</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>472</v>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>472</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E8" t="s">
         <v>80</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>472</v>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E9" t="s">
         <v>207</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
         <v>472</v>
@@ -2305,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E10" t="s">
         <v>208</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s">
         <v>472</v>
@@ -2325,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
@@ -2345,7 +2345,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
         <v>472</v>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E13" t="s">
         <v>112</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>472</v>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
         <v>472</v>
@@ -2405,7 +2405,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E15" t="s">
         <v>113</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>472</v>
@@ -2425,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
         <v>114</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s">
         <v>472</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s">
         <v>472</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
@@ -2545,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E23" t="s">
         <v>203</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
@@ -2585,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F24" t="s">
         <v>479</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
         <v>471</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B26" t="s">
         <v>471</v>
@@ -2625,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F26" t="s">
         <v>478</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B27" t="s">
         <v>471</v>
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
         <v>204</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
@@ -2665,10 +2665,10 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F28" t="s">
         <v>478</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B29" t="s">
         <v>471</v>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E29" t="s">
         <v>210</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
@@ -2705,10 +2705,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F30" t="s">
         <v>478</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
@@ -2725,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E31" t="s">
         <v>211</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s">
         <v>471</v>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
         <v>281</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B33" t="s">
         <v>471</v>
@@ -2765,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
         <v>206</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s">
         <v>471</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B36" t="s">
         <v>475</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B37" t="s">
         <v>475</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B38" t="s">
         <v>475</v>
@@ -2865,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" t="s">
         <v>483</v>
-      </c>
-      <c r="E38" t="s">
-        <v>484</v>
       </c>
       <c r="F38" t="s">
         <v>479</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
         <v>475</v>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E39" t="s">
         <v>457</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B40" t="s">
         <v>475</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B41" t="s">
         <v>475</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2976,19 +2976,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F44" t="s">
         <v>479</v>
@@ -2996,19 +2996,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F45" t="s">
         <v>479</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -3036,10 +3036,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -3056,10 +3056,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C48">
         <v>7</v>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21B8757-F0D8-43D7-B85D-ADE12B499B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5EA03-AC3F-433D-A961-F43C01BFA921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="525">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>entscheiden, ob ein Laplace-Experiment vorliegt.</t>
+  </si>
+  <si>
+    <t>hypothesentests</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F48" totalsRowShown="0">
-  <autoFilter ref="A1:F48" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F54" totalsRowShown="0">
+  <autoFilter ref="A1:F54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2099,22 +2102,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="109.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" customWidth="1"/>
+    <col min="4" max="4" width="109.86328125" customWidth="1"/>
     <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3071,6 +3074,90 @@
         <v>121</v>
       </c>
       <c r="F48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" t="s">
+        <v>524</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>508</v>
+      </c>
+      <c r="B50" t="s">
+        <v>524</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" t="s">
+        <v>524</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>508</v>
+      </c>
+      <c r="B52" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>508</v>
+      </c>
+      <c r="B53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>508</v>
+      </c>
+      <c r="B54" t="s">
+        <v>524</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
         <v>478</v>
       </c>
     </row>
@@ -3087,24 +3174,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="C180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185:G189"/>
+    <sheetView topLeftCell="B131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3220,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3261,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3381,7 +3468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3405,7 +3492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3519,7 +3606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3565,7 +3652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +3676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3613,7 +3700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -3639,7 +3726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -3665,7 +3752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -3769,7 +3856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3821,7 +3908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3847,7 +3934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -3871,7 +3958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3895,7 +3982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3921,7 +4008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3947,7 +4034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +4060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +4086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4025,7 +4112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4051,7 +4138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4077,7 +4164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +4242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,7 +4268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4207,7 +4294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4233,7 +4320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4259,7 +4346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4311,7 +4398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4337,7 +4424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4363,7 +4450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4389,7 +4476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4415,7 +4502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4493,7 +4580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4519,7 +4606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4632,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4568,7 +4655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4589,7 +4676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4610,7 +4697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4628,7 +4715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -4646,7 +4733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -4669,7 +4756,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4692,7 +4779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4715,7 +4802,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -4738,7 +4825,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -4761,7 +4848,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -4784,7 +4871,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -4807,7 +4894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -4830,7 +4917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -4854,7 +4941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -4878,7 +4965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -4902,7 +4989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -4926,7 +5013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -4950,7 +5037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -4974,7 +5061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -4998,7 +5085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5022,7 +5109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5048,7 +5135,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5074,7 +5161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5100,7 +5187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5126,7 +5213,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5152,7 +5239,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5178,7 +5265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5202,7 +5289,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5226,7 +5313,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5250,7 +5337,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5274,7 +5361,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5298,7 +5385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5322,7 +5409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5346,7 +5433,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5370,7 +5457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5394,7 +5481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5418,7 +5505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5442,7 +5529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5466,7 +5553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5490,7 +5577,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5514,7 +5601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5538,7 +5625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5562,7 +5649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5586,7 +5673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5610,7 +5697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5634,7 +5721,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -5658,7 +5745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -5682,7 +5769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -5706,7 +5793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -5730,7 +5817,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -5756,7 +5843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -5777,7 +5864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -5798,7 +5885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -5819,7 +5906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -5840,7 +5927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -5861,7 +5948,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -5882,7 +5969,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -5903,7 +5990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -5924,7 +6011,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -5945,7 +6032,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -5966,7 +6053,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5987,7 +6074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -6008,7 +6095,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6029,7 +6116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6050,7 +6137,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6071,7 +6158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6092,7 +6179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6113,7 +6200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6134,7 +6221,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6157,7 +6244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6180,7 +6267,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6203,7 +6290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6226,7 +6313,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6249,7 +6336,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6272,7 +6359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6295,7 +6382,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6318,7 +6405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6341,7 +6428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6365,7 +6452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6389,7 +6476,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6413,7 +6500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6461,7 +6548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6485,7 +6572,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6596,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +6622,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6559,7 +6646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6583,7 +6670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6609,7 +6696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6635,7 +6722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -6661,7 +6748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6772,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -6711,7 +6798,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -6737,7 +6824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -6763,7 +6850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +6876,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -6815,7 +6902,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -6863,7 +6950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -6887,7 +6974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -6909,7 +6996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -6928,7 +7015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -6947,7 +7034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -6968,7 +7055,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -6994,7 +7081,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -7020,7 +7107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7133,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7072,7 +7159,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7098,7 +7185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7124,7 +7211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7148,7 +7235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7172,7 +7259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7196,7 +7283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7220,7 +7307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7244,7 +7331,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7268,7 +7355,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7292,7 +7379,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7316,7 +7403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7340,7 +7427,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7364,7 +7451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7388,7 +7475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7412,7 +7499,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7436,7 +7523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7460,7 +7547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7484,7 +7571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7508,7 +7595,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7532,7 +7619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7556,7 +7643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7580,7 +7667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7604,7 +7691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7628,7 +7715,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -7670,23 +7757,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -7694,7 +7781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -7705,7 +7792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7713,7 +7800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -7721,7 +7808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -7732,7 +7819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -7743,7 +7830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5EA03-AC3F-433D-A961-F43C01BFA921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999031A8-BBF3-4C61-9354-336CE5C8801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="528">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1616,6 +1616,15 @@
   </si>
   <si>
     <t>hypothesentests</t>
+  </si>
+  <si>
+    <t>Ankityp</t>
+  </si>
+  <si>
+    <t>einzeln</t>
+  </si>
+  <si>
+    <t>gruppiert</t>
   </si>
 </sst>
 </file>
@@ -1645,21 +1654,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1667,23 +1670,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1691,7 +1683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1742,20 +1733,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:F54" totalsRowShown="0">
-  <autoFilter ref="A1:F54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:G54" totalsRowShown="0">
+  <autoFilter ref="A1:G54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
     <sortCondition ref="C4:C41"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
     <tableColumn id="2" xr3:uid="{52161D50-95B9-4134-AE3B-621C71EA5A88}" name="Lernbereich"/>
     <tableColumn id="5" xr3:uid="{94B0BA31-029E-49B8-BBE9-5F86CBF7C65A}" name="Nummer"/>
     <tableColumn id="3" xr3:uid="{A00D0C37-49EC-4664-851E-E5519F18EF57}" name="Ich kann"/>
     <tableColumn id="4" xr3:uid="{0B3422E8-0915-4ED4-8244-290CAAA9D261}" name="Sammlung"/>
     <tableColumn id="6" xr3:uid="{E5D2A67B-0C94-46D4-8A47-EDA3D370B7A8}" name="Typ"/>
+    <tableColumn id="7" xr3:uid="{5EAD5118-AF1C-4B9A-B59A-35487658A6CF}" name="Ankityp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2102,22 +2094,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="109.86328125" customWidth="1"/>
-    <col min="5" max="5" width="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.265625" customWidth="1"/>
+    <col min="5" max="5" width="90.3984375" customWidth="1"/>
     <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2136,8 +2128,11 @@
       <c r="F1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2156,8 +2151,11 @@
       <c r="F2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2176,8 +2174,11 @@
       <c r="F3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2196,8 +2197,11 @@
       <c r="F4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2207,17 +2211,20 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>507</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>458</v>
       </c>
       <c r="F5" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2236,8 +2243,11 @@
       <c r="F6" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2256,8 +2266,11 @@
       <c r="F7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2276,8 +2289,11 @@
       <c r="F8" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2296,8 +2312,11 @@
       <c r="F9" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2316,8 +2335,11 @@
       <c r="F10" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2336,8 +2358,11 @@
       <c r="F11" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2356,8 +2381,11 @@
       <c r="F12" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2376,8 +2404,11 @@
       <c r="F13" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2396,8 +2427,11 @@
       <c r="F14" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2416,8 +2450,11 @@
       <c r="F15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2436,8 +2473,11 @@
       <c r="F16" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2456,8 +2496,11 @@
       <c r="F17" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2476,8 +2519,11 @@
       <c r="F18" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2496,8 +2542,11 @@
       <c r="F19" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2516,8 +2565,11 @@
       <c r="F20" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2536,8 +2588,11 @@
       <c r="F21" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2556,8 +2611,11 @@
       <c r="F22" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2576,8 +2634,11 @@
       <c r="F23" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2596,8 +2657,11 @@
       <c r="F24" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2616,8 +2680,11 @@
       <c r="F25" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2636,8 +2703,11 @@
       <c r="F26" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2656,8 +2726,11 @@
       <c r="F27" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2676,8 +2749,11 @@
       <c r="F28" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2696,8 +2772,11 @@
       <c r="F29" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2716,8 +2795,11 @@
       <c r="F30" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2736,8 +2818,11 @@
       <c r="F31" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -2756,8 +2841,11 @@
       <c r="F32" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -2776,8 +2864,11 @@
       <c r="F33" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -2796,8 +2887,11 @@
       <c r="F34" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -2816,8 +2910,11 @@
       <c r="F35" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -2836,8 +2933,11 @@
       <c r="F36" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -2856,8 +2956,11 @@
       <c r="F37" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -2876,8 +2979,11 @@
       <c r="F38" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -2896,8 +3002,11 @@
       <c r="F39" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -2916,8 +3025,11 @@
       <c r="F40" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -2936,8 +3048,11 @@
       <c r="F41" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -2956,8 +3071,11 @@
       <c r="F42" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -2976,8 +3094,11 @@
       <c r="F43" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -2996,8 +3117,11 @@
       <c r="F44" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G44" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3016,8 +3140,11 @@
       <c r="F45" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3036,8 +3163,11 @@
       <c r="F46" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3056,8 +3186,11 @@
       <c r="F47" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3076,8 +3209,11 @@
       <c r="F48" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3087,11 +3223,8 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3101,11 +3234,8 @@
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3115,11 +3245,8 @@
       <c r="C51">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3129,11 +3256,8 @@
       <c r="C52">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3143,11 +3267,8 @@
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="F53" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3156,9 +3277,6 @@
       </c>
       <c r="C54">
         <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999031A8-BBF3-4C61-9354-336CE5C8801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C859F84-0B98-4103-AF4C-250E5A33D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -2096,8 +2096,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C859F84-0B98-4103-AF4C-250E5A33D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBF64A-4812-499E-883E-C145F8B1F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="532">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1625,6 +1625,18 @@
   </si>
   <si>
     <t>gruppiert</t>
+  </si>
+  <si>
+    <t>LernbereichAnzeigename</t>
+  </si>
+  <si>
+    <t>Mehrstufige Zufallsexperimente</t>
+  </si>
+  <si>
+    <t>Bedingte Wahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Zufallsexperimente und Wahrscheinlichkeiten</t>
   </si>
 </sst>
 </file>
@@ -1733,16 +1745,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:G54" totalsRowShown="0">
-  <autoFilter ref="A1:G54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H54" totalsRowShown="0">
+  <autoFilter ref="A1:H54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
-    <sortCondition ref="C4:C41"/>
+    <sortCondition ref="D4:D41"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FA29F411-2712-4D9F-84CC-6E5E209CAB5E}" name="Gebiet"/>
     <tableColumn id="2" xr3:uid="{52161D50-95B9-4134-AE3B-621C71EA5A88}" name="Lernbereich"/>
+    <tableColumn id="8" xr3:uid="{10062879-EF7A-413A-BFF9-266AC1AF044A}" name="LernbereichAnzeigename"/>
     <tableColumn id="5" xr3:uid="{94B0BA31-029E-49B8-BBE9-5F86CBF7C65A}" name="Nummer"/>
     <tableColumn id="3" xr3:uid="{A00D0C37-49EC-4664-851E-E5519F18EF57}" name="Ich kann"/>
     <tableColumn id="4" xr3:uid="{0B3422E8-0915-4ED4-8244-290CAAA9D261}" name="Sammlung"/>
@@ -2094,22 +2107,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.86328125" customWidth="1"/>
-    <col min="4" max="4" width="80.265625" customWidth="1"/>
-    <col min="5" max="5" width="90.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1328125" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" customWidth="1"/>
+    <col min="5" max="5" width="80.265625" customWidth="1"/>
+    <col min="6" max="6" width="90.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,1165 +2131,1309 @@
         <v>469</v>
       </c>
       <c r="C1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" t="s">
         <v>476</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>473</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>474</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>477</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>472</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>498</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>500</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>479</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>472</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>499</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>501</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>479</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>461</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>460</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>478</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>472</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>507</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>478</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>472</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>472</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>515</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>478</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>508</v>
       </c>
       <c r="B8" t="s">
         <v>472</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>516</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>478</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>472</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>509</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>207</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>478</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>508</v>
       </c>
       <c r="B10" t="s">
         <v>472</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>510</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>208</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>478</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>508</v>
       </c>
       <c r="B11" t="s">
         <v>472</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>511</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>209</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>478</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>508</v>
       </c>
       <c r="B12" t="s">
         <v>472</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>512</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>110</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>478</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>508</v>
       </c>
       <c r="B13" t="s">
         <v>472</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>517</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>478</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>472</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>518</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>478</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>508</v>
       </c>
       <c r="B15" t="s">
         <v>472</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>519</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>478</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>472</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>513</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>114</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>478</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>508</v>
       </c>
       <c r="B17" t="s">
         <v>472</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>221</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>478</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>508</v>
       </c>
       <c r="B18" t="s">
         <v>472</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>222</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>478</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>508</v>
       </c>
       <c r="B19" t="s">
         <v>472</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>223</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>478</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>470</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>484</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>478</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>470</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>485</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>478</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>508</v>
       </c>
       <c r="B22" t="s">
         <v>470</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>529</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>486</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>478</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>470</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>529</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>521</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>203</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>478</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>508</v>
       </c>
       <c r="B24" t="s">
         <v>470</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>522</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>487</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>479</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>508</v>
       </c>
       <c r="B25" t="s">
         <v>471</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>357</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>478</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>508</v>
       </c>
       <c r="B26" t="s">
         <v>471</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>489</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>491</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>478</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>508</v>
       </c>
       <c r="B27" t="s">
         <v>471</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>495</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>204</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>478</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>508</v>
       </c>
       <c r="B28" t="s">
         <v>471</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>488</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>492</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>478</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>508</v>
       </c>
       <c r="B29" t="s">
         <v>471</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>497</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>210</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>478</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
       <c r="B30" t="s">
         <v>471</v>
       </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
         <v>490</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>493</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>478</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>508</v>
       </c>
       <c r="B31" t="s">
         <v>471</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>496</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>211</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>478</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>508</v>
       </c>
       <c r="B32" t="s">
         <v>471</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>494</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>281</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>478</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>508</v>
       </c>
       <c r="B33" t="s">
         <v>471</v>
       </c>
-      <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>520</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>206</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>478</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>508</v>
       </c>
       <c r="B34" t="s">
         <v>471</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>455</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>452</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>478</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>508</v>
       </c>
       <c r="B35" t="s">
         <v>475</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>480</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>481</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>479</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>508</v>
       </c>
       <c r="B36" t="s">
         <v>475</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>450</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>482</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>479</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>508</v>
       </c>
       <c r="B37" t="s">
         <v>475</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>356</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>74</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>478</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>508</v>
       </c>
       <c r="B38" t="s">
         <v>475</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>523</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>483</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>479</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>508</v>
       </c>
       <c r="B39" t="s">
         <v>475</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>531</v>
+      </c>
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>514</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>457</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>478</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>508</v>
       </c>
       <c r="B40" t="s">
         <v>475</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
+        <v>531</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
         <v>65</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>205</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>478</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>508</v>
       </c>
       <c r="B41" t="s">
         <v>475</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>454</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>453</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>478</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>508</v>
       </c>
       <c r="B42" t="s">
         <v>502</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>167</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>119</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>478</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>508</v>
       </c>
       <c r="B43" t="s">
         <v>502</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>168</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>120</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>478</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>508</v>
       </c>
       <c r="B44" t="s">
         <v>502</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>503</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>505</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>479</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>508</v>
       </c>
       <c r="B45" t="s">
         <v>502</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>504</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>506</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>479</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>508</v>
       </c>
       <c r="B46" t="s">
         <v>502</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>166</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>118</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>478</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>508</v>
       </c>
       <c r="B47" t="s">
         <v>502</v>
       </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
         <v>169</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>117</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>478</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
       <c r="B48" t="s">
         <v>502</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>170</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>121</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>478</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>508</v>
       </c>
       <c r="B49" t="s">
         <v>524</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>508</v>
       </c>
       <c r="B50" t="s">
         <v>524</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>508</v>
       </c>
       <c r="B51" t="s">
         <v>524</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>508</v>
       </c>
       <c r="B52" t="s">
         <v>524</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>508</v>
       </c>
       <c r="B53" t="s">
         <v>524</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>508</v>
       </c>
       <c r="B54" t="s">
         <v>524</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>6</v>
       </c>
     </row>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBF64A-4812-499E-883E-C145F8B1F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA3DFA-9736-4C52-AB2A-EEB2166E7CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -2109,21 +2109,21 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.1328125" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="5" width="80.265625" customWidth="1"/>
-    <col min="6" max="6" width="90.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3454,20 +3454,20 @@
       <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8033,23 +8033,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA3DFA-9736-4C52-AB2A-EEB2166E7CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89109DEB-7BE0-4164-AB0D-BF7B1AD0CF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -2109,8 +2109,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,70 +3371,52 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
       <c r="B49" t="s">
         <v>524</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
       <c r="B50" t="s">
         <v>524</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>508</v>
       </c>
       <c r="B51" t="s">
         <v>524</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>508</v>
       </c>
       <c r="B52" t="s">
         <v>524</v>
       </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
       <c r="B53" t="s">
         <v>524</v>
       </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>508</v>
       </c>
       <c r="B54" t="s">
         <v>524</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89109DEB-7BE0-4164-AB0D-BF7B1AD0CF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6CD3C-8979-47D5-A3B1-75E8A23B5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="533">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1637,6 +1637,9 @@
   </si>
   <si>
     <t>Zufallsexperimente und Wahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Hypothesentests</t>
   </si>
 </sst>
 </file>
@@ -2109,8 +2112,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,52 +3374,160 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
       <c r="B49" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>478</v>
+      </c>
+      <c r="H49" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
       <c r="B50" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>532</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>478</v>
+      </c>
+      <c r="H50" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>508</v>
       </c>
       <c r="B51" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
+        <v>478</v>
+      </c>
+      <c r="H51" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>508</v>
       </c>
       <c r="B52" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>532</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>478</v>
+      </c>
+      <c r="H52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
       <c r="B53" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>532</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" t="s">
+        <v>478</v>
+      </c>
+      <c r="H53" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>508</v>
       </c>
       <c r="B54" t="s">
         <v>524</v>
+      </c>
+      <c r="C54" t="s">
+        <v>532</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" t="s">
+        <v>478</v>
+      </c>
+      <c r="H54" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -3432,8 +3543,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="B131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136:G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6CD3C-8979-47D5-A3B1-75E8A23B5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4D29F-217A-434B-A6C1-3F83B55A174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="540">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1640,6 +1640,27 @@
   </si>
   <si>
     <t>Hypothesentests</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>ganzrationale-oekonomische-funktionen</t>
+  </si>
+  <si>
+    <t>Ganzrationale ökonomische Funktionen</t>
+  </si>
+  <si>
+    <t>ganzrationale-oekonomische-funktionen_kennzahlen-definition</t>
+  </si>
+  <si>
+    <t>die mathematische Definition ökonomischer Kennzahlen angeben.</t>
+  </si>
+  <si>
+    <t>den Ansatz zur Berechnung ökonomischer Kennzahlen angeben.</t>
+  </si>
+  <si>
+    <t>ganzrationale-oekonomische-funktionen_kennzahlen-ansatz</t>
   </si>
 </sst>
 </file>
@@ -1748,8 +1769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H54" totalsRowShown="0">
-  <autoFilter ref="A1:H54" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H62" totalsRowShown="0">
+  <autoFilter ref="A1:H62" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -1771,7 +1792,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:I189" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Wirtschaft"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I189">
     <sortCondition ref="B2:B189"/>
     <sortCondition ref="D2:D189"/>
@@ -2110,23 +2137,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="80.28515625" customWidth="1"/>
-    <col min="6" max="6" width="90.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.53125" customWidth="1"/>
+    <col min="3" max="3" width="33.86328125" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" customWidth="1"/>
+    <col min="5" max="5" width="80.265625" customWidth="1"/>
+    <col min="6" max="6" width="90.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2179,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2178,7 +2205,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2204,7 +2231,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2230,7 +2257,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2256,7 +2283,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2282,7 +2309,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2308,7 +2335,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2334,7 +2361,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2386,7 +2413,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2412,7 +2439,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2464,7 +2491,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2490,7 +2517,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2516,7 +2543,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2568,7 +2595,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2594,7 +2621,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2620,7 +2647,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2698,7 +2725,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2724,7 +2751,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2750,7 +2777,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2776,7 +2803,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2802,7 +2829,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2828,7 +2855,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2854,7 +2881,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2880,7 +2907,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2906,7 +2933,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2932,7 +2959,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -2984,7 +3011,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -3010,7 +3037,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -3036,7 +3063,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -3062,7 +3089,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -3088,7 +3115,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -3114,7 +3141,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -3140,7 +3167,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -3166,7 +3193,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -3192,7 +3219,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -3218,7 +3245,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -3244,7 +3271,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -3270,7 +3297,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3296,7 +3323,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3322,7 +3349,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3348,7 +3375,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3374,7 +3401,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3400,7 +3427,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3426,7 +3453,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3452,7 +3479,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3478,7 +3505,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3528,6 +3555,214 @@
       </c>
       <c r="H54" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>533</v>
+      </c>
+      <c r="B55" t="s">
+        <v>534</v>
+      </c>
+      <c r="C55" t="s">
+        <v>535</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" t="s">
+        <v>478</v>
+      </c>
+      <c r="H55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>533</v>
+      </c>
+      <c r="B56" t="s">
+        <v>534</v>
+      </c>
+      <c r="C56" t="s">
+        <v>535</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" t="s">
+        <v>478</v>
+      </c>
+      <c r="H56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>533</v>
+      </c>
+      <c r="B57" t="s">
+        <v>534</v>
+      </c>
+      <c r="C57" t="s">
+        <v>535</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>537</v>
+      </c>
+      <c r="F57" t="s">
+        <v>536</v>
+      </c>
+      <c r="G57" t="s">
+        <v>479</v>
+      </c>
+      <c r="H57" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>533</v>
+      </c>
+      <c r="B58" t="s">
+        <v>534</v>
+      </c>
+      <c r="C58" t="s">
+        <v>535</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" t="s">
+        <v>478</v>
+      </c>
+      <c r="H58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>533</v>
+      </c>
+      <c r="B59" t="s">
+        <v>534</v>
+      </c>
+      <c r="C59" t="s">
+        <v>535</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" t="s">
+        <v>478</v>
+      </c>
+      <c r="H59" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>533</v>
+      </c>
+      <c r="B60" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" t="s">
+        <v>535</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>538</v>
+      </c>
+      <c r="F60" t="s">
+        <v>539</v>
+      </c>
+      <c r="G60" t="s">
+        <v>479</v>
+      </c>
+      <c r="H60" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>533</v>
+      </c>
+      <c r="B61" t="s">
+        <v>534</v>
+      </c>
+      <c r="C61" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" t="s">
+        <v>478</v>
+      </c>
+      <c r="H61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>533</v>
+      </c>
+      <c r="B62" t="s">
+        <v>534</v>
+      </c>
+      <c r="C62" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" t="s">
+        <v>478</v>
+      </c>
+      <c r="H62" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3543,24 +3778,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136:G139"/>
+    <sheetView topLeftCell="D35" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3589,7 +3824,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3641,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3667,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3693,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3717,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +3976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +4000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3789,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +4048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3837,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3861,7 +4096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3883,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -3905,7 +4140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3929,7 +4164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +4188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3975,7 +4210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3997,7 +4232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4021,7 +4256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4045,7 +4280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4069,7 +4304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +4330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +4356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +4408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4199,7 +4434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -4251,7 +4486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4277,7 +4512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -4303,7 +4538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4351,7 +4586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4403,7 +4638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4481,7 +4716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4507,7 +4742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4533,7 +4768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4559,7 +4794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4611,7 +4846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4637,7 +4872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4689,7 +4924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4715,7 +4950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4741,7 +4976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4767,7 +5002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -4793,7 +5028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +5054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -4845,7 +5080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +5106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -4897,7 +5132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -4923,7 +5158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -4949,7 +5184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -4975,7 +5210,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5001,7 +5236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -5024,7 +5259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -5045,7 +5280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -5066,7 +5301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +5319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5102,7 +5337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -5125,7 +5360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5148,7 +5383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -5171,7 +5406,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -5194,7 +5429,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -5217,7 +5452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -5240,7 +5475,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -5263,7 +5498,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -5286,7 +5521,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -5310,7 +5545,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -5334,7 +5569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -5358,7 +5593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -5382,7 +5617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -5406,7 +5641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -5430,7 +5665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -5454,7 +5689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5478,7 +5713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5504,7 +5739,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5530,7 +5765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5556,7 +5791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5582,7 +5817,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5608,7 +5843,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5634,7 +5869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5658,7 +5893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5682,7 +5917,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5706,7 +5941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5730,7 +5965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5754,7 +5989,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -5778,7 +6013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -5802,7 +6037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -5826,7 +6061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -5850,7 +6085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5874,7 +6109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5898,7 +6133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -5922,7 +6157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -5946,7 +6181,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -5970,7 +6205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -5994,7 +6229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -6018,7 +6253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -6042,7 +6277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -6066,7 +6301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -6090,7 +6325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -6114,7 +6349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -6138,7 +6373,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6162,7 +6397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6186,7 +6421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -6212,7 +6447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -6233,7 +6468,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -6254,7 +6489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -6275,7 +6510,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -6296,7 +6531,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -6317,7 +6552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -6338,7 +6573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -6359,7 +6594,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -6380,7 +6615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -6401,7 +6636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -6422,7 +6657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -6443,7 +6678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -6464,7 +6699,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6485,7 +6720,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6506,7 +6741,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6527,7 +6762,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6548,7 +6783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6569,7 +6804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6590,7 +6825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6613,7 +6848,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6636,7 +6871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6659,7 +6894,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6682,7 +6917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6705,7 +6940,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6728,7 +6963,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6751,7 +6986,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -6774,7 +7009,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -6797,7 +7032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +7056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6845,7 +7080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6869,7 +7104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6893,7 +7128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6917,7 +7152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6941,7 +7176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6965,7 +7200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -6991,7 +7226,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -7015,7 +7250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -7039,7 +7274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -7065,7 +7300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -7091,7 +7326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7117,7 +7352,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7141,7 +7376,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7167,7 +7402,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7193,7 +7428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7219,7 +7454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -7245,7 +7480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -7271,7 +7506,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -7295,7 +7530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -7319,7 +7554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -7343,7 +7578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -7384,7 +7619,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -7403,7 +7638,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -7424,7 +7659,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -7450,7 +7685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -7476,7 +7711,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7502,7 +7737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7528,7 +7763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7554,7 +7789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7580,7 +7815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7604,7 +7839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7628,7 +7863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7652,7 +7887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7676,7 +7911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7700,7 +7935,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7724,7 +7959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7748,7 +7983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -7772,7 +8007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -7796,7 +8031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -7820,7 +8055,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -7844,7 +8079,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -7868,7 +8103,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -7892,7 +8127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -7916,7 +8151,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -7940,7 +8175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -7964,7 +8199,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -7988,7 +8223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -8012,7 +8247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -8036,7 +8271,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -8084,7 +8319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8126,23 +8361,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -8150,7 +8385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -8161,7 +8396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -8169,7 +8404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8177,7 +8412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -8199,7 +8434,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4D29F-217A-434B-A6C1-3F83B55A174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892A0D-CA5C-47C7-939C-46CE0C9FAF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="550">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1661,6 +1661,36 @@
   </si>
   <si>
     <t>ganzrationale-oekonomische-funktionen_kennzahlen-ansatz</t>
+  </si>
+  <si>
+    <t>ertragsgesetzliche-kostenfunktionen</t>
+  </si>
+  <si>
+    <t>Ertragsgesetzliche Kostenfunktionen</t>
+  </si>
+  <si>
+    <t>ertragsgesetzliche-kostenfunktionen_kennzahlen-definition</t>
+  </si>
+  <si>
+    <t>ertragsgesetzliche-kostenfunktionen_kennzahlen-ansatz</t>
+  </si>
+  <si>
+    <t>den Ansatz zur Berechnung von Kostenkennzahlen angeben.</t>
+  </si>
+  <si>
+    <t>die mathematische Definition von Kostenkennzahlen angeben.</t>
+  </si>
+  <si>
+    <t>ertragsgesetzliche-kostenfunktionen_nachweis</t>
+  </si>
+  <si>
+    <t>prüfen, ob eine Funktion den Verlauf einer ertragsgesetzlichen Kostenfunktion aufweist.</t>
+  </si>
+  <si>
+    <t>prüfen, für welche Parameter eine parametrisierte Funktion den Verlauf einer ertragsgesetzlichen Kostenfunktion aufweist.</t>
+  </si>
+  <si>
+    <t>ertragsgesetzliche-kostenfunktionen_nachweis_parameter</t>
   </si>
 </sst>
 </file>
@@ -1769,8 +1799,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H62" totalsRowShown="0">
-  <autoFilter ref="A1:H62" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H68" totalsRowShown="0">
+  <autoFilter ref="A1:H68" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -1796,6 +1826,11 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Wirtschaft"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Ökonomische Funktionen"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2137,23 +2172,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.53125" customWidth="1"/>
-    <col min="3" max="3" width="33.86328125" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="5" width="80.265625" customWidth="1"/>
-    <col min="6" max="6" width="90.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2214,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2205,7 +2240,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2231,7 +2266,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2257,7 +2292,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2283,7 +2318,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2335,7 +2370,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2361,7 +2396,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2439,7 +2474,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2465,7 +2500,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2517,7 +2552,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2543,7 +2578,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2569,7 +2604,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2621,7 +2656,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2647,7 +2682,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2725,7 +2760,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2751,7 +2786,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2777,7 +2812,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2803,7 +2838,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2829,7 +2864,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2855,7 +2890,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2881,7 +2916,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2933,7 +2968,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2959,7 +2994,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -2985,7 +3020,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -3037,7 +3072,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -3063,7 +3098,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -3115,7 +3150,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -3193,7 +3228,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -3219,7 +3254,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -3245,7 +3280,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -3297,7 +3332,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3323,7 +3358,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3401,7 +3436,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3427,7 +3462,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3453,7 +3488,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3479,7 +3514,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3505,7 +3540,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3531,7 +3566,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3557,7 +3592,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>533</v>
       </c>
@@ -3583,7 +3618,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>533</v>
       </c>
@@ -3609,7 +3644,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>533</v>
       </c>
@@ -3635,7 +3670,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>533</v>
       </c>
@@ -3661,7 +3696,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>533</v>
       </c>
@@ -3687,7 +3722,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>533</v>
       </c>
@@ -3713,7 +3748,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -3739,7 +3774,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>533</v>
       </c>
@@ -3762,6 +3797,162 @@
         <v>478</v>
       </c>
       <c r="H62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>533</v>
+      </c>
+      <c r="B63" t="s">
+        <v>540</v>
+      </c>
+      <c r="C63" t="s">
+        <v>541</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>547</v>
+      </c>
+      <c r="F63" t="s">
+        <v>546</v>
+      </c>
+      <c r="G63" t="s">
+        <v>479</v>
+      </c>
+      <c r="H63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>533</v>
+      </c>
+      <c r="B64" t="s">
+        <v>540</v>
+      </c>
+      <c r="C64" t="s">
+        <v>541</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>548</v>
+      </c>
+      <c r="F64" t="s">
+        <v>549</v>
+      </c>
+      <c r="G64" t="s">
+        <v>479</v>
+      </c>
+      <c r="H64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>533</v>
+      </c>
+      <c r="B65" t="s">
+        <v>540</v>
+      </c>
+      <c r="C65" t="s">
+        <v>541</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>545</v>
+      </c>
+      <c r="F65" t="s">
+        <v>542</v>
+      </c>
+      <c r="G65" t="s">
+        <v>479</v>
+      </c>
+      <c r="H65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>533</v>
+      </c>
+      <c r="B66" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" t="s">
+        <v>541</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>478</v>
+      </c>
+      <c r="H66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>533</v>
+      </c>
+      <c r="B67" t="s">
+        <v>540</v>
+      </c>
+      <c r="C67" t="s">
+        <v>541</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>544</v>
+      </c>
+      <c r="F67" t="s">
+        <v>543</v>
+      </c>
+      <c r="G67" t="s">
+        <v>479</v>
+      </c>
+      <c r="H67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>533</v>
+      </c>
+      <c r="B68" t="s">
+        <v>540</v>
+      </c>
+      <c r="C68" t="s">
+        <v>541</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" t="s">
+        <v>478</v>
+      </c>
+      <c r="H68" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3778,24 +3969,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="D35" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:G40"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3824,7 +4015,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3850,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +4093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +4191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +4239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4072,7 +4263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4118,7 +4309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4140,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4188,7 +4379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4232,7 +4423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4304,7 +4495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -4330,7 +4521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4356,7 +4547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4382,7 +4573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4434,7 +4625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +4703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -4538,7 +4729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -4562,7 +4753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4586,7 +4777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +4803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4638,7 +4829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4664,7 +4855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4690,7 +4881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4716,7 +4907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4742,7 +4933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4768,7 +4959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4794,7 +4985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -4820,7 +5011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +5037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -4872,7 +5063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -4898,7 +5089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -4924,7 +5115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +5141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +5167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -5002,7 +5193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -5028,7 +5219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -5054,7 +5245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -5080,7 +5271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -5106,7 +5297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -5132,7 +5323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +5349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -5184,7 +5375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5210,7 +5401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5236,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -5259,7 +5450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -5280,7 +5471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -5301,7 +5492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -5319,7 +5510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5337,7 +5528,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -5360,7 +5551,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5383,7 +5574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -5406,7 +5597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -5429,7 +5620,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -5452,7 +5643,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -5475,7 +5666,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -5498,7 +5689,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -5521,7 +5712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -5545,7 +5736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -5569,7 +5760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -5593,7 +5784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -5617,7 +5808,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -5641,7 +5832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -5665,7 +5856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -5689,7 +5880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5713,7 +5904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5739,7 +5930,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5765,7 +5956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -5791,7 +5982,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -5817,7 +6008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5843,7 +6034,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -5869,7 +6060,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -5893,7 +6084,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -5917,7 +6108,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -5941,7 +6132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -5965,7 +6156,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -5989,7 +6180,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -6013,7 +6204,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -6037,7 +6228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -6061,7 +6252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -6085,7 +6276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -6109,7 +6300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -6133,7 +6324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -6157,7 +6348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -6181,7 +6372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -6205,7 +6396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -6229,7 +6420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -6253,7 +6444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -6277,7 +6468,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -6301,7 +6492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -6325,7 +6516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -6349,7 +6540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -6373,7 +6564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6397,7 +6588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6421,7 +6612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -6447,7 +6638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -6468,7 +6659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -6489,7 +6680,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -6510,7 +6701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -6531,7 +6722,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -6552,7 +6743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -6573,7 +6764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -6594,7 +6785,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -6615,7 +6806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -6636,7 +6827,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -6657,7 +6848,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -6678,7 +6869,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -6699,7 +6890,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6720,7 +6911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6741,7 +6932,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6762,7 +6953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -6783,7 +6974,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -6804,7 +6995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -6825,7 +7016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -6848,7 +7039,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -6871,7 +7062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -6894,7 +7085,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -6917,7 +7108,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -6940,7 +7131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -6963,7 +7154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -6986,7 +7177,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -7009,7 +7200,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -7032,7 +7223,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7056,7 +7247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7080,7 +7271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7104,7 +7295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -7128,7 +7319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -7152,7 +7343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -7176,7 +7367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -7200,7 +7391,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -7226,7 +7417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -7250,7 +7441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -7274,7 +7465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -7300,7 +7491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -7326,7 +7517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7352,7 +7543,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7376,7 +7567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7402,7 +7593,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7428,7 +7619,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7454,7 +7645,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -7480,7 +7671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -7506,7 +7697,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -7530,7 +7721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -7554,7 +7745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -7578,7 +7769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -7600,7 +7791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -7619,7 +7810,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -7638,7 +7829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -7659,7 +7850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -7685,7 +7876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -7711,7 +7902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7737,7 +7928,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7763,7 +7954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -7789,7 +7980,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -7815,7 +8006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -7839,7 +8030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -7863,7 +8054,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +8078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -7911,7 +8102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -7935,7 +8126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -7959,7 +8150,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +8174,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -8007,7 +8198,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -8031,7 +8222,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -8055,7 +8246,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -8079,7 +8270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -8103,7 +8294,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -8127,7 +8318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -8151,7 +8342,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -8175,7 +8366,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -8199,7 +8390,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -8223,7 +8414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -8247,7 +8438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -8271,7 +8462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -8295,7 +8486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -8319,7 +8510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8361,23 +8552,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -8385,7 +8576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -8396,7 +8587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -8404,7 +8595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8412,7 +8603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -8423,7 +8614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -8434,7 +8625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892A0D-CA5C-47C7-939C-46CE0C9FAF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66A8186-ABFD-4CEB-95C7-953AC28DF744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="551">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1691,6 +1691,9 @@
   </si>
   <si>
     <t>ertragsgesetzliche-kostenfunktionen_nachweis_parameter</t>
+  </si>
+  <si>
+    <t>Gleichungen ertragsgesetzlicher Kostenfunktionen aufstellen.</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1802,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H68" totalsRowShown="0">
-  <autoFilter ref="A1:H68" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H69" totalsRowShown="0">
+  <autoFilter ref="A1:H69" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2172,10 +2175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3956,6 +3959,32 @@
         <v>526</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>533</v>
+      </c>
+      <c r="B69" t="s">
+        <v>540</v>
+      </c>
+      <c r="C69" t="s">
+        <v>541</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>478</v>
+      </c>
+      <c r="H69" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3970,7 +3999,7 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F36" sqref="F36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66A8186-ABFD-4CEB-95C7-953AC28DF744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8327EC-6836-4777-ACDD-3DB0BED61D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" activeTab="1" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -1833,7 +1833,7 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Ökonomische Funktionen"/>
+        <filter val="Marktgleichgewicht"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2177,21 +2177,21 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="80.28515625" customWidth="1"/>
-    <col min="6" max="6" width="90.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="33.86328125" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" customWidth="1"/>
+    <col min="5" max="5" width="80.265625" customWidth="1"/>
+    <col min="6" max="6" width="90.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>533</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>533</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>533</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>533</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>533</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>533</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>533</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>533</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>533</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>533</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>533</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>533</v>
       </c>
@@ -3998,24 +3998,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:G36"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8581,23 +8581,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8327EC-6836-4777-ACDD-3DB0BED61D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DEB76-60D9-429E-90E8-191BDCB8988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" activeTab="1" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="559">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1694,6 +1694,30 @@
   </si>
   <si>
     <t>Gleichungen ertragsgesetzlicher Kostenfunktionen aufstellen.</t>
+  </si>
+  <si>
+    <t>marktgleichgewicht-grundlagen</t>
+  </si>
+  <si>
+    <t>Marktgleichgewicht - Grundlagen</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit linearer Preis-Absatz- und Preis-Nachfrage-Funktionen graphisch bestimmen.</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenGraphisch_Linear</t>
+  </si>
+  <si>
+    <t>die mathematische Definition der Kennzahlen zum Marktgleichgewicht angeben.</t>
+  </si>
+  <si>
+    <t>marktgleichgewicht-grundlagen_kennzahlen-definition</t>
+  </si>
+  <si>
+    <t>feststellen, ob ein Nachfrage- oder Angebotsüberschuss vorliegt und diesen Überschuss berechnen.</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_Marktungleichgewicht_Bestimmung</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1826,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H69" totalsRowShown="0">
-  <autoFilter ref="A1:H69" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2175,10 +2199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="F60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3985,6 +4009,110 @@
         <v>526</v>
       </c>
     </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>533</v>
+      </c>
+      <c r="B70" t="s">
+        <v>551</v>
+      </c>
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>555</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>479</v>
+      </c>
+      <c r="H70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>533</v>
+      </c>
+      <c r="B71" t="s">
+        <v>551</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F71" t="s">
+        <v>554</v>
+      </c>
+      <c r="G71" t="s">
+        <v>478</v>
+      </c>
+      <c r="H71" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>533</v>
+      </c>
+      <c r="B72" t="s">
+        <v>551</v>
+      </c>
+      <c r="C72" t="s">
+        <v>552</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s">
+        <v>478</v>
+      </c>
+      <c r="H72" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>533</v>
+      </c>
+      <c r="B73" t="s">
+        <v>551</v>
+      </c>
+      <c r="C73" t="s">
+        <v>552</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G73" t="s">
+        <v>478</v>
+      </c>
+      <c r="H73" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3998,8 +4126,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DEB76-60D9-429E-90E8-191BDCB8988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB157735-0FEF-4B85-89EE-4601BE4030DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="564">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1718,6 +1718,21 @@
   </si>
   <si>
     <t>Analysis_Wirtschaft_Marktgleichgewicht_Marktungleichgewicht_Bestimmung</t>
+  </si>
+  <si>
+    <t>marktgleichgewicht-vertiefung</t>
+  </si>
+  <si>
+    <t>Marktgleichgewicht - Vertiefung</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit beliebigen Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit beliebigen Preis-Absatz- und Preis-Nachfrage-Funktionen graphisch bestimmen.</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenGraphisch_Allgemein</t>
   </si>
 </sst>
 </file>
@@ -1826,8 +1841,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H77" totalsRowShown="0">
+  <autoFilter ref="A1:H77" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2199,10 +2214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="F59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4113,6 +4128,110 @@
         <v>527</v>
       </c>
     </row>
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>533</v>
+      </c>
+      <c r="B74" t="s">
+        <v>559</v>
+      </c>
+      <c r="C74" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F74" t="s">
+        <v>563</v>
+      </c>
+      <c r="G74" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>533</v>
+      </c>
+      <c r="B75" t="s">
+        <v>559</v>
+      </c>
+      <c r="C75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>478</v>
+      </c>
+      <c r="H75" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>533</v>
+      </c>
+      <c r="B76" t="s">
+        <v>559</v>
+      </c>
+      <c r="C76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>478</v>
+      </c>
+      <c r="H76" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>533</v>
+      </c>
+      <c r="B77" t="s">
+        <v>559</v>
+      </c>
+      <c r="C77" t="s">
+        <v>560</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>349</v>
+      </c>
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" t="s">
+        <v>478</v>
+      </c>
+      <c r="H77" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4126,8 +4245,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\mathechecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB157735-0FEF-4B85-89EE-4601BE4030DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4D8C67-55D1-46DE-BBFC-D1FA56D21259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="568">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1733,6 +1733,18 @@
   </si>
   <si>
     <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenGraphisch_Allgemein</t>
+  </si>
+  <si>
+    <t>analysis-diverses</t>
+  </si>
+  <si>
+    <t>Analysis - Diverses</t>
+  </si>
+  <si>
+    <t>eine lineare, quadratische, kubische und exponentielle Regression durchführen und das Bestimmheitsmaß bestimmen.</t>
+  </si>
+  <si>
+    <t>analysis_regression</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1853,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H77" totalsRowShown="0">
-  <autoFilter ref="A1:H77" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H78" totalsRowShown="0">
+  <autoFilter ref="A1:H78" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2214,23 +2226,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.59765625" customWidth="1"/>
-    <col min="3" max="3" width="33.86328125" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="5" width="80.265625" customWidth="1"/>
-    <col min="6" max="6" width="90.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
+    <col min="6" max="6" width="90.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>508</v>
       </c>
@@ -2282,7 +2294,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>508</v>
       </c>
@@ -2334,7 +2346,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>508</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>508</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>508</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>508</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>508</v>
       </c>
@@ -2542,7 +2554,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>508</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>508</v>
       </c>
@@ -2594,7 +2606,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>508</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>508</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>508</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>508</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>508</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>508</v>
       </c>
@@ -2906,7 +2918,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>508</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>508</v>
       </c>
@@ -2958,7 +2970,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2984,7 +2996,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>508</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>508</v>
       </c>
@@ -3062,7 +3074,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>508</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>508</v>
       </c>
@@ -3114,7 +3126,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>508</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>508</v>
       </c>
@@ -3166,7 +3178,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>508</v>
       </c>
@@ -3192,7 +3204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>508</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>508</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>508</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>508</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>508</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>508</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>508</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>508</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>508</v>
       </c>
@@ -3426,7 +3438,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>508</v>
       </c>
@@ -3478,7 +3490,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>508</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
@@ -3530,7 +3542,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>508</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>508</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>508</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>508</v>
       </c>
@@ -3634,7 +3646,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>533</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>533</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>533</v>
       </c>
@@ -3712,7 +3724,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>533</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>533</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>533</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>533</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>533</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>533</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>533</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>533</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>533</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>533</v>
       </c>
@@ -3998,7 +4010,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>533</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>533</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>533</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>533</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>533</v>
       </c>
@@ -4128,7 +4140,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>533</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>533</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>533</v>
       </c>
@@ -4206,7 +4218,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>533</v>
       </c>
@@ -4229,6 +4241,32 @@
         <v>478</v>
       </c>
       <c r="H77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78" t="s">
+        <v>564</v>
+      </c>
+      <c r="C78" t="s">
+        <v>565</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>566</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78" t="s">
+        <v>478</v>
+      </c>
+      <c r="H78" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4249,20 +4287,20 @@
       <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="62.1328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +4329,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4369,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4395,7 +4433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4443,7 +4481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4491,7 +4529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4539,7 +4577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4563,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4631,7 +4669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4655,7 +4693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4677,7 +4715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4699,7 +4737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4723,7 +4761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4771,7 +4809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -4797,7 +4835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +4861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4849,7 +4887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4875,7 +4913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4901,7 +4939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4927,7 +4965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -4953,7 +4991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -4979,7 +5017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +5043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -5029,7 +5067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +5117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -5131,7 +5169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5157,7 +5195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -5183,7 +5221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5235,7 +5273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5261,7 +5299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5313,7 +5351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5365,7 +5403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5391,7 +5429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5417,7 +5455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -5443,7 +5481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -5469,7 +5507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -5495,7 +5533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -5521,7 +5559,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -5547,7 +5585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +5611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -5599,7 +5637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -5625,7 +5663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -5651,7 +5689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5677,7 +5715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5703,7 +5741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5764,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
@@ -5747,7 +5785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -5768,7 +5806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -5786,7 +5824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5804,7 +5842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>95</v>
       </c>
@@ -5827,7 +5865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>95</v>
       </c>
@@ -5850,7 +5888,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
@@ -5873,7 +5911,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
@@ -5896,7 +5934,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
@@ -5919,7 +5957,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>95</v>
       </c>
@@ -5942,7 +5980,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>95</v>
       </c>
@@ -5965,7 +6003,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>95</v>
       </c>
@@ -5988,7 +6026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>95</v>
       </c>
@@ -6012,7 +6050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
@@ -6036,7 +6074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
@@ -6060,7 +6098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
@@ -6084,7 +6122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>95</v>
       </c>
@@ -6108,7 +6146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>95</v>
       </c>
@@ -6132,7 +6170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
@@ -6156,7 +6194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>95</v>
       </c>
@@ -6180,7 +6218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
@@ -6206,7 +6244,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>95</v>
       </c>
@@ -6232,7 +6270,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>95</v>
       </c>
@@ -6258,7 +6296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>95</v>
       </c>
@@ -6284,7 +6322,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>95</v>
       </c>
@@ -6310,7 +6348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>95</v>
       </c>
@@ -6336,7 +6374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
@@ -6360,7 +6398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>95</v>
       </c>
@@ -6384,7 +6422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>95</v>
       </c>
@@ -6408,7 +6446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -6432,7 +6470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>95</v>
       </c>
@@ -6456,7 +6494,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>131</v>
       </c>
@@ -6480,7 +6518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>131</v>
       </c>
@@ -6504,7 +6542,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
@@ -6528,7 +6566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>131</v>
       </c>
@@ -6552,7 +6590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>131</v>
       </c>
@@ -6576,7 +6614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
@@ -6600,7 +6638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>131</v>
       </c>
@@ -6624,7 +6662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
@@ -6648,7 +6686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>131</v>
       </c>
@@ -6672,7 +6710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>131</v>
       </c>
@@ -6696,7 +6734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>131</v>
       </c>
@@ -6720,7 +6758,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>131</v>
       </c>
@@ -6744,7 +6782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>131</v>
       </c>
@@ -6768,7 +6806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>131</v>
       </c>
@@ -6792,7 +6830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>131</v>
       </c>
@@ -6816,7 +6854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
@@ -6840,7 +6878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
@@ -6864,7 +6902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -6888,7 +6926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -6914,7 +6952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>370</v>
       </c>
@@ -6935,7 +6973,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -6956,7 +6994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>370</v>
       </c>
@@ -6977,7 +7015,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>370</v>
       </c>
@@ -6998,7 +7036,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
@@ -7019,7 +7057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>370</v>
       </c>
@@ -7040,7 +7078,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>370</v>
       </c>
@@ -7061,7 +7099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>370</v>
       </c>
@@ -7082,7 +7120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>370</v>
       </c>
@@ -7103,7 +7141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>370</v>
       </c>
@@ -7124,7 +7162,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>370</v>
       </c>
@@ -7145,7 +7183,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>370</v>
       </c>
@@ -7166,7 +7204,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>370</v>
       </c>
@@ -7187,7 +7225,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>370</v>
       </c>
@@ -7208,7 +7246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>370</v>
       </c>
@@ -7229,7 +7267,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>370</v>
       </c>
@@ -7250,7 +7288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>370</v>
       </c>
@@ -7271,7 +7309,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>370</v>
       </c>
@@ -7292,7 +7330,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>370</v>
       </c>
@@ -7315,7 +7353,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>370</v>
       </c>
@@ -7338,7 +7376,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>370</v>
       </c>
@@ -7361,7 +7399,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>370</v>
       </c>
@@ -7384,7 +7422,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>370</v>
       </c>
@@ -7407,7 +7445,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>370</v>
       </c>
@@ -7430,7 +7468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>370</v>
       </c>
@@ -7453,7 +7491,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>370</v>
       </c>
@@ -7476,7 +7514,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>370</v>
       </c>
@@ -7499,7 +7537,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7523,7 +7561,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7547,7 +7585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7571,7 +7609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -7595,7 +7633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -7619,7 +7657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -7643,7 +7681,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -7667,7 +7705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -7693,7 +7731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -7717,7 +7755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -7741,7 +7779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -7767,7 +7805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -7793,7 +7831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7819,7 +7857,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7843,7 +7881,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7869,7 +7907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7895,7 +7933,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7921,7 +7959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -7947,7 +7985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -7973,7 +8011,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -7997,7 +8035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -8021,7 +8059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -8045,7 +8083,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -8067,7 +8105,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +8124,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -8105,7 +8143,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -8126,7 +8164,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -8152,7 +8190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -8178,7 +8216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -8204,7 +8242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -8230,7 +8268,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -8256,7 +8294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -8282,7 +8320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -8306,7 +8344,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -8330,7 +8368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -8354,7 +8392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -8378,7 +8416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -8402,7 +8440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -8426,7 +8464,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -8450,7 +8488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -8474,7 +8512,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -8498,7 +8536,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -8522,7 +8560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -8546,7 +8584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -8570,7 +8608,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -8594,7 +8632,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -8618,7 +8656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -8642,7 +8680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -8666,7 +8704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -8690,7 +8728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -8714,7 +8752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -8738,7 +8776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -8762,7 +8800,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -8786,7 +8824,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8828,23 +8866,23 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -8852,7 +8890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -8863,7 +8901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -8871,7 +8909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -8879,7 +8917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -8901,7 +8939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4D8C67-55D1-46DE-BBFC-D1FA56D21259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0ECFA6-2E2C-4727-8E2C-0D5FBC8AA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" activeTab="2" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="572">
   <si>
     <t>Gebiet</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Ökonomische Funktionen</t>
   </si>
   <si>
-    <t>Teilgebiet</t>
-  </si>
-  <si>
     <t>Schwerpunkt</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Zusatz zu: Ich kann</t>
-  </si>
-  <si>
     <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen berechnen.</t>
   </si>
   <si>
@@ -124,21 +118,6 @@
     <t>Kennzahlen quadratischer, ökonomischer Funktionen graphisch bestimmen.</t>
   </si>
   <si>
-    <t>kein schlüsselwort in vba-dateien</t>
-  </si>
-  <si>
-    <t>typ</t>
-  </si>
-  <si>
-    <t>eindeutig in Tabelle</t>
-  </si>
-  <si>
-    <t>Normsprache</t>
-  </si>
-  <si>
-    <t>Abkürzungen</t>
-  </si>
-  <si>
     <t>Marktgleichgewicht</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>Wahrscheinlichkeiten von Sigma-Umgebungen des Erwartungswerts berechnen.</t>
   </si>
   <si>
-    <t>ohne Sonderzeichen, Unterstriche ok, keine ","</t>
-  </si>
-  <si>
     <t>Angewandte Mathematik</t>
   </si>
   <si>
@@ -1745,6 +1721,42 @@
   </si>
   <si>
     <t>analysis_regression</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Analysis Wirtschaftsmathematik Kostentheorie</t>
+  </si>
+  <si>
+    <t>Analysis Wirtschaftsmathematik Erlöse Kosten Gewinne</t>
+  </si>
+  <si>
+    <t>Analysis Wirtschaftsmathematik Gleichgewichtsmenge Gleichgewichtspreis</t>
+  </si>
+  <si>
+    <t>Analysis Wirtschaftsmathematik Konsumentenrente Produzentenrente</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Stochastik Baumdiagramme Vierfeldertafeln Unabhängigkeit</t>
+  </si>
+  <si>
+    <t>Stochastik Intervallwahrscheinlichkeiten Histogramme Lagemaße Erwartungswertumgebungen</t>
+  </si>
+  <si>
+    <t>Stochastik Binomialverteilung Entscheidungsregel</t>
+  </si>
+  <si>
+    <t>Stochastik Baumdiagramme Pfadregeln</t>
+  </si>
+  <si>
+    <t>Stochastik Erwartungswert Standardabweichung</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1794,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1790,12 +1802,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1803,6 +1826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2228,8 +2252,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,2027 +2271,2027 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G1" t="s">
         <v>469</v>
       </c>
-      <c r="C1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" t="s">
-        <v>477</v>
-      </c>
       <c r="H1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H4" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H6" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H9" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H10" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H11" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H12" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H13" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>470</v>
+      </c>
+      <c r="H14" t="s">
         <v>518</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>478</v>
-      </c>
-      <c r="H14" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H15" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H16" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H17" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H18" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H19" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C20" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H20" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H21" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C22" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H22" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C23" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H23" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B24" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G24" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H24" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C25" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H25" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G26" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H26" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B27" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C27" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H27" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B28" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C28" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G28" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H28" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C29" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H29" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F30" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G30" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H30" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G31" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H31" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C32" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H32" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H33" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G34" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H34" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C35" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F35" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G35" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H35" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B36" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C36" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F36" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G36" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H36" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B37" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H37" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B38" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C38" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F38" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G38" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H38" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C39" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F39" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G39" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H39" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B40" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C40" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H40" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B41" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D41">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G41" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H41" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B42" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H42" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B43" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H43" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B44" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F44" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G44" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H44" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B45" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F45" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G45" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H45" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B46" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D46">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H46" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B47" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H47" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B48" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H48" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B49" t="s">
+        <v>516</v>
+      </c>
+      <c r="C49" t="s">
         <v>524</v>
-      </c>
-      <c r="C49" t="s">
-        <v>532</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H49" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B50" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" t="s">
         <v>524</v>
-      </c>
-      <c r="C50" t="s">
-        <v>532</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H50" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B51" t="s">
+        <v>516</v>
+      </c>
+      <c r="C51" t="s">
         <v>524</v>
-      </c>
-      <c r="C51" t="s">
-        <v>532</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H51" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B52" t="s">
+        <v>516</v>
+      </c>
+      <c r="C52" t="s">
         <v>524</v>
-      </c>
-      <c r="C52" t="s">
-        <v>532</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H52" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B53" t="s">
+        <v>516</v>
+      </c>
+      <c r="C53" t="s">
         <v>524</v>
-      </c>
-      <c r="C53" t="s">
-        <v>532</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H53" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B54" t="s">
+        <v>516</v>
+      </c>
+      <c r="C54" t="s">
         <v>524</v>
-      </c>
-      <c r="C54" t="s">
-        <v>532</v>
       </c>
       <c r="D54">
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H54" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B55" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C55" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H55" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B56" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C56" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H56" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C57" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F57" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H57" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C58" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G58" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H58" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B59" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C59" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G59" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H59" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B60" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C60" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D60">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F60" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G60" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H60" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C61" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D61">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H61" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B62" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C62" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D62">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H62" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>525</v>
+      </c>
+      <c r="B63" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" t="s">
         <v>533</v>
-      </c>
-      <c r="B63" t="s">
-        <v>540</v>
-      </c>
-      <c r="C63" t="s">
-        <v>541</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F63" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G63" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H63" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>525</v>
+      </c>
+      <c r="B64" t="s">
+        <v>532</v>
+      </c>
+      <c r="C64" t="s">
         <v>533</v>
-      </c>
-      <c r="B64" t="s">
-        <v>540</v>
-      </c>
-      <c r="C64" t="s">
-        <v>541</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F64" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G64" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H64" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>525</v>
+      </c>
+      <c r="B65" t="s">
+        <v>532</v>
+      </c>
+      <c r="C65" t="s">
         <v>533</v>
-      </c>
-      <c r="B65" t="s">
-        <v>540</v>
-      </c>
-      <c r="C65" t="s">
-        <v>541</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G65" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H65" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" t="s">
+        <v>532</v>
+      </c>
+      <c r="C66" t="s">
         <v>533</v>
-      </c>
-      <c r="B66" t="s">
-        <v>540</v>
-      </c>
-      <c r="C66" t="s">
-        <v>541</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H66" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>525</v>
+      </c>
+      <c r="B67" t="s">
+        <v>532</v>
+      </c>
+      <c r="C67" t="s">
         <v>533</v>
-      </c>
-      <c r="B67" t="s">
-        <v>540</v>
-      </c>
-      <c r="C67" t="s">
-        <v>541</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F67" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G67" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H67" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" t="s">
+        <v>532</v>
+      </c>
+      <c r="C68" t="s">
         <v>533</v>
-      </c>
-      <c r="B68" t="s">
-        <v>540</v>
-      </c>
-      <c r="C68" t="s">
-        <v>541</v>
       </c>
       <c r="D68">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H68" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C69" t="s">
         <v>533</v>
-      </c>
-      <c r="B69" t="s">
-        <v>540</v>
-      </c>
-      <c r="C69" t="s">
-        <v>541</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H69" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C70" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G70" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H70" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C71" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F71" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H71" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B72" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C72" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H72" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C73" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G73" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H73" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C74" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F74" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G74" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H74" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C75" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H75" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B76" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C76" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H76" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C77" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H77" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C78" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F78" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G78" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H78" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4308,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4323,10 +4347,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,22 +4358,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -4360,22 +4384,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -4386,22 +4410,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -4412,22 +4436,22 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
@@ -4438,19 +4462,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
@@ -4462,19 +4486,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
@@ -4486,20 +4510,20 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I8" s="1">
         <v>7</v>
@@ -4510,20 +4534,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I9" s="1">
         <v>8</v>
@@ -4534,20 +4558,20 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I10" s="1">
         <v>9</v>
@@ -4558,20 +4582,20 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -4582,19 +4606,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
@@ -4606,17 +4630,17 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
@@ -4628,17 +4652,17 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -4650,19 +4674,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -4674,20 +4698,20 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I16" s="1">
         <v>15</v>
@@ -4698,17 +4722,17 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
@@ -4720,17 +4744,17 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
@@ -4742,20 +4766,20 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I19" s="1">
         <v>18</v>
@@ -4766,20 +4790,20 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I20" s="1">
         <v>19</v>
@@ -4790,20 +4814,20 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I21" s="1">
         <v>20</v>
@@ -4814,22 +4838,22 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I22" s="1">
         <v>21</v>
@@ -4840,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -4849,13 +4873,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I23" s="1">
         <v>22</v>
@@ -4866,7 +4890,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -4875,13 +4899,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I24" s="1">
         <v>23</v>
@@ -4892,7 +4916,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -4901,13 +4925,13 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I25" s="1">
         <v>24</v>
@@ -4918,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -4927,13 +4951,13 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I26" s="1">
         <v>25</v>
@@ -4944,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -4953,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I27" s="1">
         <v>26</v>
@@ -4970,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -4979,13 +5003,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I28" s="1">
         <v>27</v>
@@ -4996,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
@@ -5005,13 +5029,13 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I29" s="1">
         <v>28</v>
@@ -5022,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -5031,13 +5055,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I30" s="1">
         <v>29</v>
@@ -5048,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -5057,10 +5081,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
@@ -5072,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -5081,10 +5105,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
@@ -5096,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -5105,13 +5129,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I33" s="1">
         <v>32</v>
@@ -5122,7 +5146,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -5131,13 +5155,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I34" s="1">
         <v>33</v>
@@ -5148,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -5157,13 +5181,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I35" s="1">
         <v>34</v>
@@ -5174,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -5183,13 +5207,13 @@
         <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I36" s="1">
         <v>35</v>
@@ -5200,7 +5224,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -5209,13 +5233,13 @@
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I37" s="1">
         <v>36</v>
@@ -5226,7 +5250,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -5235,13 +5259,13 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I38" s="1">
         <v>37</v>
@@ -5252,7 +5276,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -5261,13 +5285,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I39" s="1">
         <v>38</v>
@@ -5278,7 +5302,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
@@ -5287,13 +5311,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I40" s="1">
         <v>39</v>
@@ -5304,7 +5328,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
@@ -5313,13 +5337,13 @@
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I41" s="1">
         <v>40</v>
@@ -5330,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
@@ -5339,13 +5363,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I42" s="1">
         <v>41</v>
@@ -5356,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
@@ -5365,13 +5389,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I43" s="1">
         <v>42</v>
@@ -5382,7 +5406,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>6</v>
@@ -5391,13 +5415,13 @@
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I44" s="1">
         <v>43</v>
@@ -5408,7 +5432,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>6</v>
@@ -5417,13 +5441,13 @@
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I45" s="1">
         <v>44</v>
@@ -5434,22 +5458,22 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I46" s="1">
         <v>45</v>
@@ -5460,7 +5484,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>6</v>
@@ -5469,13 +5493,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I47" s="1">
         <v>46</v>
@@ -5486,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -5495,13 +5519,13 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I48" s="1">
         <v>47</v>
@@ -5512,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>6</v>
@@ -5521,13 +5545,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I49" s="1">
         <v>48</v>
@@ -5538,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>6</v>
@@ -5547,13 +5571,13 @@
         <v>11</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I50" s="1">
         <v>49</v>
@@ -5564,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>6</v>
@@ -5573,13 +5597,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I51" s="1">
         <v>50</v>
@@ -5590,22 +5614,22 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I52" s="1">
         <v>51</v>
@@ -5616,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>6</v>
@@ -5625,13 +5649,13 @@
         <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I53" s="1">
         <v>52</v>
@@ -5642,7 +5666,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>6</v>
@@ -5651,13 +5675,13 @@
         <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I54" s="1">
         <v>53</v>
@@ -5668,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>6</v>
@@ -5677,13 +5701,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I55" s="1">
         <v>54</v>
@@ -5694,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>6</v>
@@ -5703,13 +5727,13 @@
         <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I56" s="1">
         <v>55</v>
@@ -5720,7 +5744,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>6</v>
@@ -5729,13 +5753,13 @@
         <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I57" s="1">
         <v>56</v>
@@ -5749,16 +5773,16 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I58" s="1">
         <v>57</v>
@@ -5772,13 +5796,13 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1">
@@ -5793,13 +5817,13 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
@@ -5835,7 +5859,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
@@ -5844,22 +5868,22 @@
     </row>
     <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I63" s="1">
         <v>179</v>
@@ -5867,22 +5891,22 @@
     </row>
     <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I64" s="1">
         <v>180</v>
@@ -5890,22 +5914,22 @@
     </row>
     <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I65" s="1">
         <v>181</v>
@@ -5913,22 +5937,22 @@
     </row>
     <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I66" s="1">
         <v>182</v>
@@ -5936,22 +5960,22 @@
     </row>
     <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I67" s="1">
         <v>175</v>
@@ -5959,22 +5983,22 @@
     </row>
     <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I68" s="1">
         <v>176</v>
@@ -5982,22 +6006,22 @@
     </row>
     <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I69" s="1">
         <v>177</v>
@@ -6005,22 +6029,22 @@
     </row>
     <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I70" s="1">
         <v>178</v>
@@ -6028,22 +6052,22 @@
     </row>
     <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1">
@@ -6052,22 +6076,22 @@
     </row>
     <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1">
@@ -6076,22 +6100,22 @@
     </row>
     <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1">
@@ -6100,22 +6124,22 @@
     </row>
     <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
@@ -6124,22 +6148,22 @@
     </row>
     <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1">
@@ -6148,22 +6172,22 @@
     </row>
     <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1">
@@ -6172,22 +6196,22 @@
     </row>
     <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1">
@@ -6196,22 +6220,22 @@
     </row>
     <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1">
@@ -6220,25 +6244,25 @@
     </row>
     <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I79" s="1">
         <v>169</v>
@@ -6246,25 +6270,25 @@
     </row>
     <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I80" s="1">
         <v>170</v>
@@ -6272,25 +6296,25 @@
     </row>
     <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I81" s="1">
         <v>171</v>
@@ -6298,25 +6322,25 @@
     </row>
     <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I82" s="1">
         <v>172</v>
@@ -6324,25 +6348,25 @@
     </row>
     <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I83" s="1">
         <v>173</v>
@@ -6350,25 +6374,25 @@
     </row>
     <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="I84" s="1">
         <v>174</v>
@@ -6376,22 +6400,22 @@
     </row>
     <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1">
@@ -6400,22 +6424,22 @@
     </row>
     <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1">
@@ -6424,22 +6448,22 @@
     </row>
     <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1">
@@ -6448,22 +6472,22 @@
     </row>
     <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1">
@@ -6472,22 +6496,22 @@
     </row>
     <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1">
@@ -6496,23 +6520,23 @@
     </row>
     <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I90" s="1">
         <v>71</v>
@@ -6520,23 +6544,23 @@
     </row>
     <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I91" s="1">
         <v>72</v>
@@ -6544,23 +6568,23 @@
     </row>
     <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I92" s="1">
         <v>73</v>
@@ -6568,23 +6592,23 @@
     </row>
     <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I93" s="1">
         <v>74</v>
@@ -6592,23 +6616,23 @@
     </row>
     <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I94" s="1">
         <v>75</v>
@@ -6616,23 +6640,23 @@
     </row>
     <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I95" s="1">
         <v>76</v>
@@ -6640,22 +6664,22 @@
     </row>
     <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1">
@@ -6664,22 +6688,22 @@
     </row>
     <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1">
@@ -6688,22 +6712,22 @@
     </row>
     <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1">
@@ -6712,22 +6736,22 @@
     </row>
     <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1">
@@ -6736,22 +6760,22 @@
     </row>
     <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1">
@@ -6760,22 +6784,22 @@
     </row>
     <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1">
@@ -6784,22 +6808,22 @@
     </row>
     <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1">
@@ -6808,22 +6832,22 @@
     </row>
     <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1">
@@ -6832,22 +6856,22 @@
     </row>
     <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1">
@@ -6856,22 +6880,22 @@
     </row>
     <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1">
@@ -6880,22 +6904,22 @@
     </row>
     <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1">
@@ -6904,22 +6928,22 @@
     </row>
     <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1">
@@ -6928,25 +6952,25 @@
     </row>
     <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I108" s="1">
         <v>89</v>
@@ -6954,19 +6978,19 @@
     </row>
     <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1">
@@ -6975,19 +6999,19 @@
     </row>
     <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1">
@@ -6996,19 +7020,19 @@
     </row>
     <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1">
@@ -7017,19 +7041,19 @@
     </row>
     <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1">
@@ -7038,19 +7062,19 @@
     </row>
     <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1">
@@ -7059,19 +7083,19 @@
     </row>
     <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1">
@@ -7080,19 +7104,19 @@
     </row>
     <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1">
@@ -7101,19 +7125,19 @@
     </row>
     <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1">
@@ -7122,19 +7146,19 @@
     </row>
     <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1">
@@ -7143,19 +7167,19 @@
     </row>
     <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1">
@@ -7164,19 +7188,19 @@
     </row>
     <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1">
@@ -7185,19 +7209,19 @@
     </row>
     <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1">
@@ -7206,19 +7230,19 @@
     </row>
     <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1">
@@ -7227,19 +7251,19 @@
     </row>
     <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1">
@@ -7248,19 +7272,19 @@
     </row>
     <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1">
@@ -7269,19 +7293,19 @@
     </row>
     <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1">
@@ -7290,19 +7314,19 @@
     </row>
     <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1">
@@ -7311,19 +7335,19 @@
     </row>
     <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1">
@@ -7332,22 +7356,22 @@
     </row>
     <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I127" s="1">
         <v>138</v>
@@ -7355,22 +7379,22 @@
     </row>
     <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I128" s="1">
         <v>139</v>
@@ -7378,22 +7402,22 @@
     </row>
     <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I129" s="1">
         <v>140</v>
@@ -7401,22 +7425,22 @@
     </row>
     <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I130" s="1">
         <v>141</v>
@@ -7424,22 +7448,22 @@
     </row>
     <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="I131" s="1">
         <v>142</v>
@@ -7447,22 +7471,22 @@
     </row>
     <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I132" s="1">
         <v>143</v>
@@ -7470,22 +7494,22 @@
     </row>
     <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I133" s="1">
         <v>144</v>
@@ -7493,22 +7517,22 @@
     </row>
     <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I134" s="1">
         <v>145</v>
@@ -7516,22 +7540,22 @@
     </row>
     <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I135" s="1">
         <v>146</v>
@@ -7542,19 +7566,19 @@
         <v>10</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1">
@@ -7566,19 +7590,19 @@
         <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1">
@@ -7590,19 +7614,19 @@
         <v>10</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1">
@@ -7614,19 +7638,19 @@
         <v>10</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1">
@@ -7638,19 +7662,19 @@
         <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1">
@@ -7662,19 +7686,19 @@
         <v>10</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1">
@@ -7686,19 +7710,19 @@
         <v>10</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1">
@@ -7710,22 +7734,22 @@
         <v>10</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I143" s="1">
         <v>97</v>
@@ -7736,19 +7760,19 @@
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1">
@@ -7760,19 +7784,19 @@
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1">
@@ -7784,22 +7808,22 @@
         <v>10</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I146" s="1">
         <v>100</v>
@@ -7810,22 +7834,22 @@
         <v>10</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I147" s="1">
         <v>101</v>
@@ -7836,22 +7860,22 @@
         <v>10</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I148" s="1">
         <v>102</v>
@@ -7862,19 +7886,19 @@
         <v>10</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1">
@@ -7886,22 +7910,22 @@
         <v>10</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I150" s="1">
         <v>103</v>
@@ -7912,22 +7936,22 @@
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I151" s="1">
         <v>104</v>
@@ -7938,22 +7962,22 @@
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I152" s="1">
         <v>105</v>
@@ -7964,22 +7988,22 @@
         <v>10</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I153" s="1">
         <v>106</v>
@@ -7990,22 +8014,22 @@
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I154" s="1">
         <v>107</v>
@@ -8016,19 +8040,19 @@
         <v>10</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1">
@@ -8040,19 +8064,19 @@
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1">
@@ -8064,19 +8088,19 @@
         <v>10</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1">
@@ -8088,17 +8112,17 @@
         <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1">
@@ -8110,14 +8134,14 @@
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1">
@@ -8129,14 +8153,14 @@
         <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1">
@@ -8148,17 +8172,17 @@
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I161" s="1">
         <v>186</v>
@@ -8169,22 +8193,22 @@
         <v>10</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I162" s="1">
         <v>111</v>
@@ -8195,22 +8219,22 @@
         <v>10</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I163" s="1">
         <v>112</v>
@@ -8221,22 +8245,22 @@
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H164" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I164" s="1">
         <v>113</v>
@@ -8247,22 +8271,22 @@
         <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H165" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I165" s="1">
         <v>114</v>
@@ -8273,22 +8297,22 @@
         <v>10</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I166" s="1">
         <v>115</v>
@@ -8299,22 +8323,22 @@
         <v>10</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I167" s="1">
         <v>116</v>
@@ -8325,19 +8349,19 @@
         <v>10</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1">
@@ -8349,19 +8373,19 @@
         <v>10</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1">
@@ -8373,19 +8397,19 @@
         <v>10</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1">
@@ -8397,19 +8421,19 @@
         <v>10</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1">
@@ -8421,19 +8445,19 @@
         <v>10</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1">
@@ -8445,19 +8469,19 @@
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1">
@@ -8469,19 +8493,19 @@
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1">
@@ -8493,19 +8517,19 @@
         <v>10</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1">
@@ -8517,19 +8541,19 @@
         <v>10</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1">
@@ -8541,19 +8565,19 @@
         <v>10</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1">
@@ -8565,19 +8589,19 @@
         <v>10</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1">
@@ -8589,19 +8613,19 @@
         <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1">
@@ -8613,19 +8637,19 @@
         <v>10</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1">
@@ -8637,19 +8661,19 @@
         <v>10</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1">
@@ -8661,19 +8685,19 @@
         <v>10</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1">
@@ -8685,19 +8709,19 @@
         <v>10</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1">
@@ -8709,19 +8733,19 @@
         <v>10</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1">
@@ -8733,19 +8757,19 @@
         <v>10</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1">
@@ -8757,19 +8781,19 @@
         <v>10</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1">
@@ -8781,19 +8805,19 @@
         <v>10</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1">
@@ -8805,19 +8829,19 @@
         <v>10</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1">
@@ -8829,19 +8853,19 @@
         <v>10</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1">
@@ -8860,15 +8884,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5E637A-5790-4AF1-BFCA-DD8EB511B478}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="B6:D14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -8877,77 +8902,103 @@
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>524</v>
+      </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>521</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>523</v>
+      </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0ECFA6-2E2C-4727-8E2C-0D5FBC8AA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC82D1-BE1C-4D9A-83B3-FA8967735D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" activeTab="2" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="579">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1757,6 +1757,27 @@
   </si>
   <si>
     <t>Stochastik Erwartungswert Standardabweichung</t>
+  </si>
+  <si>
+    <t>lineare-algebra</t>
+  </si>
+  <si>
+    <t>lineare-gleichungssysteme</t>
+  </si>
+  <si>
+    <t>Lineare Gleichungssysteme</t>
+  </si>
+  <si>
+    <t>eindeutig lösbare lineare Gleichungssysteme mit 2 Unbekannten und 2 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>eindeutig lösbare lineare Gleichungssysteme mit 3 Unbekannten und 3 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>eindeutig lösbare lineare Gleichungssysteme mit 4 Unbekannten und 4 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>matrizenrechnung</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1877,8 +1898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H78" totalsRowShown="0">
-  <autoFilter ref="A1:H78" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H84" totalsRowShown="0">
+  <autoFilter ref="A1:H84" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -1900,18 +1921,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:I189" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Wirtschaft"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Marktgleichgewicht"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:I189" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I189">
     <sortCondition ref="B2:B189"/>
     <sortCondition ref="D2:D189"/>
@@ -2250,14 +2260,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
@@ -4291,6 +4302,162 @@
         <v>470</v>
       </c>
       <c r="H78" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>572</v>
+      </c>
+      <c r="B79" t="s">
+        <v>573</v>
+      </c>
+      <c r="C79" t="s">
+        <v>574</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" t="s">
+        <v>470</v>
+      </c>
+      <c r="H79" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>572</v>
+      </c>
+      <c r="B80" t="s">
+        <v>573</v>
+      </c>
+      <c r="C80" t="s">
+        <v>574</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" t="s">
+        <v>470</v>
+      </c>
+      <c r="H80" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>572</v>
+      </c>
+      <c r="B81" t="s">
+        <v>573</v>
+      </c>
+      <c r="C81" t="s">
+        <v>574</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" t="s">
+        <v>470</v>
+      </c>
+      <c r="H81" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>572</v>
+      </c>
+      <c r="B82" t="s">
+        <v>578</v>
+      </c>
+      <c r="C82" t="s">
+        <v>574</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" t="s">
+        <v>470</v>
+      </c>
+      <c r="H82" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>572</v>
+      </c>
+      <c r="B83" t="s">
+        <v>578</v>
+      </c>
+      <c r="C83" t="s">
+        <v>574</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" t="s">
+        <v>470</v>
+      </c>
+      <c r="H83" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>572</v>
+      </c>
+      <c r="B84" t="s">
+        <v>578</v>
+      </c>
+      <c r="C84" t="s">
+        <v>574</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" t="s">
+        <v>470</v>
+      </c>
+      <c r="H84" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4307,8 +4474,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+    <sheetView topLeftCell="A88" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4353,7 +4520,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4379,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4405,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4481,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4529,7 +4696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4577,7 +4744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +4814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -4669,7 +4836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4717,7 +4884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4739,7 +4906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4761,7 +4928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +4976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +5026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -4885,7 +5052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +5078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +5104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +5130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
@@ -4989,7 +5156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +5208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +5234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -5091,7 +5258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +5308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5219,7 +5386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
@@ -5245,7 +5412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -5271,7 +5438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5323,7 +5490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5349,7 +5516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +5542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +5568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5427,7 +5594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5479,7 +5646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
@@ -5531,7 +5698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
@@ -5557,7 +5724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -5583,7 +5750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -5635,7 +5802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
@@ -5661,7 +5828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
@@ -5687,7 +5854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
@@ -5713,7 +5880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
@@ -5739,7 +5906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -5830,7 +5997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
@@ -5848,7 +6015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
@@ -5866,7 +6033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>87</v>
       </c>
@@ -5889,7 +6056,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>87</v>
       </c>
@@ -5912,7 +6079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>87</v>
       </c>
@@ -5935,7 +6102,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
@@ -5958,7 +6125,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,7 +6148,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>87</v>
       </c>
@@ -6004,7 +6171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>87</v>
       </c>
@@ -6027,7 +6194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
@@ -6050,7 +6217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>87</v>
       </c>
@@ -6074,7 +6241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>87</v>
       </c>
@@ -6098,7 +6265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
@@ -6122,7 +6289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>87</v>
       </c>
@@ -6146,7 +6313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>87</v>
       </c>
@@ -6170,7 +6337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
@@ -6194,7 +6361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,7 +6385,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>87</v>
       </c>
@@ -6242,7 +6409,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>87</v>
       </c>
@@ -6268,7 +6435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
@@ -6294,7 +6461,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>87</v>
       </c>
@@ -6320,7 +6487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
@@ -6346,7 +6513,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>87</v>
       </c>
@@ -6372,7 +6539,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>87</v>
       </c>
@@ -6398,7 +6565,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
@@ -6422,7 +6589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
@@ -6446,7 +6613,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
@@ -6470,7 +6637,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
@@ -6494,7 +6661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>87</v>
       </c>
@@ -6518,7 +6685,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>123</v>
       </c>
@@ -6542,7 +6709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>123</v>
       </c>
@@ -6566,7 +6733,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>123</v>
       </c>
@@ -6590,7 +6757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>123</v>
       </c>
@@ -6614,7 +6781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>123</v>
       </c>
@@ -6638,7 +6805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>123</v>
       </c>
@@ -6662,7 +6829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>123</v>
       </c>
@@ -6686,7 +6853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>123</v>
       </c>
@@ -6710,7 +6877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>123</v>
       </c>
@@ -6734,7 +6901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>123</v>
       </c>
@@ -6758,7 +6925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>123</v>
       </c>
@@ -6782,7 +6949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>123</v>
       </c>
@@ -6806,7 +6973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>123</v>
       </c>
@@ -6830,7 +6997,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>123</v>
       </c>
@@ -6854,7 +7021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>123</v>
       </c>
@@ -6878,7 +7045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>123</v>
       </c>
@@ -6902,7 +7069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>123</v>
       </c>
@@ -6926,7 +7093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>123</v>
       </c>
@@ -6950,7 +7117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>123</v>
       </c>
@@ -6976,7 +7143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>362</v>
       </c>
@@ -6997,7 +7164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>362</v>
       </c>
@@ -7018,7 +7185,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>362</v>
       </c>
@@ -7039,7 +7206,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>362</v>
       </c>
@@ -7060,7 +7227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>362</v>
       </c>
@@ -7081,7 +7248,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>362</v>
       </c>
@@ -7102,7 +7269,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>362</v>
       </c>
@@ -7123,7 +7290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>362</v>
       </c>
@@ -7144,7 +7311,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>362</v>
       </c>
@@ -7165,7 +7332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>362</v>
       </c>
@@ -7186,7 +7353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>362</v>
       </c>
@@ -7207,7 +7374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>362</v>
       </c>
@@ -7228,7 +7395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>362</v>
       </c>
@@ -7249,7 +7416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>362</v>
       </c>
@@ -7270,7 +7437,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>362</v>
       </c>
@@ -7291,7 +7458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>362</v>
       </c>
@@ -7312,7 +7479,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>362</v>
       </c>
@@ -7333,7 +7500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>362</v>
       </c>
@@ -7354,7 +7521,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>362</v>
       </c>
@@ -7377,7 +7544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>362</v>
       </c>
@@ -7400,7 +7567,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>362</v>
       </c>
@@ -7423,7 +7590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>362</v>
       </c>
@@ -7446,7 +7613,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>362</v>
       </c>
@@ -7469,7 +7636,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>362</v>
       </c>
@@ -7492,7 +7659,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>362</v>
       </c>
@@ -7515,7 +7682,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>362</v>
       </c>
@@ -7538,7 +7705,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>362</v>
       </c>
@@ -7561,7 +7728,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7585,7 +7752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7609,7 +7776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7633,7 +7800,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>10</v>
       </c>
@@ -7657,7 +7824,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>10</v>
       </c>
@@ -7681,7 +7848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -7705,7 +7872,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>10</v>
       </c>
@@ -7729,7 +7896,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>10</v>
       </c>
@@ -7755,7 +7922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
@@ -7779,7 +7946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>10</v>
       </c>
@@ -7803,7 +7970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -7855,7 +8022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>10</v>
       </c>
@@ -7881,7 +8048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>10</v>
       </c>
@@ -7905,7 +8072,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
@@ -7931,7 +8098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -7957,7 +8124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +8150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>10</v>
       </c>
@@ -8009,7 +8176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
@@ -8035,7 +8202,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>10</v>
       </c>
@@ -8059,7 +8226,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -8083,7 +8250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>10</v>
       </c>
@@ -8107,7 +8274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>10</v>
       </c>
@@ -8129,7 +8296,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8315,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>10</v>
       </c>
@@ -8167,7 +8334,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -8188,7 +8355,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>10</v>
       </c>
@@ -8214,7 +8381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -8240,7 +8407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>10</v>
       </c>
@@ -8266,7 +8433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
@@ -8292,7 +8459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -8318,7 +8485,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>10</v>
       </c>
@@ -8344,7 +8511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
@@ -8368,7 +8535,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>10</v>
       </c>
@@ -8392,7 +8559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
@@ -8416,7 +8583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -8440,7 +8607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>10</v>
       </c>
@@ -8464,7 +8631,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>10</v>
       </c>
@@ -8488,7 +8655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>10</v>
       </c>
@@ -8512,7 +8679,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>10</v>
       </c>
@@ -8536,7 +8703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -8560,7 +8727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>10</v>
       </c>
@@ -8584,7 +8751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
@@ -8608,7 +8775,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>10</v>
       </c>
@@ -8632,7 +8799,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>10</v>
       </c>
@@ -8656,7 +8823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -8680,7 +8847,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>10</v>
       </c>
@@ -8704,7 +8871,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
@@ -8728,7 +8895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>10</v>
       </c>
@@ -8752,7 +8919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>10</v>
       </c>
@@ -8776,7 +8943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -8800,7 +8967,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>10</v>
       </c>
@@ -8824,7 +8991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>10</v>
       </c>
@@ -8848,7 +9015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>10</v>
       </c>
@@ -8886,7 +9053,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC82D1-BE1C-4D9A-83B3-FA8967735D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75292082-646B-4F5A-B9B0-3E304B80E100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="581">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1778,6 +1778,12 @@
   </si>
   <si>
     <t>matrizenrechnung</t>
+  </si>
+  <si>
+    <t>mehrstufige-produktionsprozesse</t>
+  </si>
+  <si>
+    <t>die Elemente von Produktionsmatrizen interpretieren.</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1904,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H84" totalsRowShown="0">
-  <autoFilter ref="A1:H84" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}" name="Tabelle3" displayName="Tabelle3" ref="A1:H90" totalsRowShown="0">
+  <autoFilter ref="A1:H90" xr:uid="{6BB25205-42BE-4CAB-B42F-50F62005FF18}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
     <sortCondition ref="A4:A41"/>
     <sortCondition ref="B4:B41"/>
@@ -2260,10 +2266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A174E-7B03-4450-BBC9-7B2D41DA1675}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,6 +4465,99 @@
       </c>
       <c r="H84" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>572</v>
+      </c>
+      <c r="B85" t="s">
+        <v>579</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>580</v>
+      </c>
+      <c r="F85" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" t="s">
+        <v>470</v>
+      </c>
+      <c r="H85" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>572</v>
+      </c>
+      <c r="B87" t="s">
+        <v>579</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>572</v>
+      </c>
+      <c r="B88" t="s">
+        <v>579</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>572</v>
+      </c>
+      <c r="B89" t="s">
+        <v>579</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>572</v>
+      </c>
+      <c r="B90" t="s">
+        <v>579</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/kompetenzliste.xlsx
+++ b/kompetenzliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\mathechecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC7EABB-63BC-4C97-8DDC-66D68D8EB26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36BD08-CFFF-4755-8574-67C2372A17AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="587">
   <si>
     <t>Lernbereich</t>
   </si>
@@ -1774,6 +1774,18 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Produktionsmatrizen_allgemein</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Zwischen- oder Endprodukten die dafür benötigten Rohstoffe oder Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Rohstoffen oder Zwischenprodukten die daraus herstellbaren Zwischen- oder Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_var1</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_var2</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:H90" totalsRowShown="0">
-  <autoFilter ref="A1:H90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:H89" totalsRowShown="0">
+  <autoFilter ref="A1:H89" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Gebiet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lernbereich"/>
@@ -2207,10 +2219,10 @@
   <sheetPr codeName="Tabelle1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4470,7 @@
         <v>496</v>
       </c>
       <c r="H86" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4474,6 +4486,18 @@
       <c r="D87" s="9">
         <v>3</v>
       </c>
+      <c r="E87" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G87" t="s">
+        <v>496</v>
+      </c>
+      <c r="H87" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -4488,6 +4512,18 @@
       <c r="D88" s="9">
         <v>4</v>
       </c>
+      <c r="E88" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G88" t="s">
+        <v>496</v>
+      </c>
+      <c r="H88" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -4502,19 +4538,17 @@
       <c r="D89" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>572</v>
-      </c>
-      <c r="B90" t="s">
-        <v>579</v>
-      </c>
-      <c r="C90" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" s="9">
-        <v>6</v>
+      <c r="E89" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G89" t="s">
+        <v>496</v>
+      </c>
+      <c r="H89" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4567,7 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+      <selection activeCell="F108" sqref="F108:G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
